--- a/Data/Foundations.xlsx
+++ b/Data/Foundations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y82"/>
+  <dimension ref="A1:Y79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2420,11 +2420,11 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>283</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2432,36 +2432,100 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>CIBPA,</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Centre Leonardo Da Vinci 8370, boul. Lacordaire, bur. 310 St-Léonard QC H1R3Y6</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fondation privée </t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Monsieur Sam Spatari, Président </t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>514-254-4929</t>
+        </is>
+      </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>15 630 $</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>137 800 $</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>En tout temps</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>31 mars</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Éducation (Bourses d'études, bourses d'entretien, etc. (voir guide). Services communautaires.</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Bourses aux particuliers (aux étudiants).</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>Communiquer par : courrier, courriel ou fax. Favorise les organismes communautaires. Limites géographiques : Montréal. Voir le site web.</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>cibpa@qc.aira.com</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>www.cibpa.qc.com</t>
+        </is>
+      </c>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>514-254-4920</t>
+        </is>
+      </c>
       <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>289</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2471,98 +2535,70 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>CIBPA,</t>
+          <t xml:space="preserve">Chaire de recherche Environnement-Cancer </t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Centre Leonardo Da Vinci 8370, boul. Lacordaire, bur. 310 St-Léonard QC H1R3Y6</t>
+          <t>l’Université de Montréal Chaire de recherche philanthropique École de santé publique Université de Montréal Montréal, QC</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Fondation privée </t>
-        </is>
-      </c>
+          <t xml:space="preserve">F  </t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Monsieur Sam Spatari, Président </t>
+          <t>M. J. Siemiatycki</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>514-254-4929</t>
+          <t xml:space="preserve">514 890-8166  </t>
         </is>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>15 630 $</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>137 800 $</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>En tout temps</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>31 mars</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Éducation (Bourses d'études, bourses d'entretien, etc. (voir guide). Services communautaires.</t>
+          <t xml:space="preserve">Réunir et explorer un maximum de données scientifiques dans l’optique d’adresser l’impact de l’environnement (tant les habitudes de vie que le milieu) sur le développement du cancer.  </t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Bourses aux particuliers (aux étudiants).</t>
-        </is>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>Communiquer par : courrier, courriel ou fax. Favorise les organismes communautaires. Limites géographiques : Montréal. Voir le site web.</t>
-        </is>
-      </c>
+          <t xml:space="preserve">La Chaire Environnement-Cancer Guzzo de l'Université de Montréal. </t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
         <is>
-          <t>cibpa@qc.aira.com</t>
+          <t xml:space="preserve">j.siemiatycki@umontreal.ca </t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>www.cibpa.qc.com</t>
+          <t>https://www.cinemasguzzo.com/fondation.html</t>
         </is>
       </c>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr">
-        <is>
-          <t>514-254-4920</t>
-        </is>
-      </c>
+      <c r="V22" t="inlineStr"/>
       <c r="W22" t="inlineStr"/>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>293</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2572,70 +2608,102 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Chaire de recherche Environnement-Cancer </t>
+          <t xml:space="preserve">Fondation One Drop </t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Chaire de recherche philanthropique École de santé publique Université de Montréal Montréal, QC</t>
+          <t>8400, 2e Avenue Montréal QC H1Z4M6</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t xml:space="preserve">F  </t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr"/>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fondation publique </t>
+        </is>
+      </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>M. J. Siemiatycki</t>
+          <t xml:space="preserve">Monsieur Richard Wilson, Directeur exécutif </t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t xml:space="preserve">514 890-8166  </t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
+          <t>514-722-2324</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>14 065 à 2 822 530 $</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>3 144 260 $</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>9 498 000 $</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>En tout temps</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>31 décembre</t>
+        </is>
+      </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Réunir et explorer un maximum de données scientifiques dans l’optique d’adresser l’impact de l’environnement (tant les habitudes de vie que le milieu) sur le développement du cancer.  </t>
+          <t>Causes charitables en général (OXFAM-Québec). Coopération internationale (dans les pays du Sud en donnant de l'eau potable à chacun et partout sur la planète pour les générations à venir). Éducation (développer et enseigner des pratiques d'utilisation responsable et de conservation de l'eau). Environnement (développer des pratiques d'utilisation responsable et de conservation de l'eau et programmes agricoles). Pauvreté (trouver, donner et faciliter l'accès à l'eau). Santé (améliorer la qualité de l'eau).</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t xml:space="preserve">La Chaire Environnement-Cancer Guzzo de l'Université de Montréal. </t>
-        </is>
-      </c>
-      <c r="Q23" t="inlineStr"/>
+          <t>Activité bénéfice annuelle (Soirées-bénéfice, galas ou concerts, ventes, internet, dons de sociétés et commandites ciblés, contacts ciblés, marketing lié à une cause). Coopération internationale. Environnement (développer des pratiques d'utilisation responsable et de conservation de l'eau).</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>Communiquer par : courrier, courriel ou fax. Limites géographiques : le Québec et internationales. Voir le site web.</t>
+        </is>
+      </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t xml:space="preserve">j.siemiatycki@umontreal.ca </t>
+          <t>richard.wilson@onedrop.org</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>https://www.cinemasguzzo.com/fondation.html</t>
+          <t>www.onedrop.org</t>
         </is>
       </c>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>514-723-8983</t>
+        </is>
+      </c>
       <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>298</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2645,12 +2713,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fondation One Drop </t>
+          <t>Fondation du Club de Hockey Canadien pour l'enfance,</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>8400, 2e Avenue Montréal QC H1Z4M6</t>
+          <t>La 1275, rue Saint-Antoine O. Montréal QC H3C5L2</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2665,69 +2733,73 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Monsieur Richard Wilson, Directeur exécutif </t>
+          <t xml:space="preserve">Madame Bernadette Kajjouni, Directrice  </t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>514-722-2324</t>
+          <t>514-925-2511</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>14 065 à 2 822 530 $</t>
+          <t>250 à 47 480 $</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>3 144 260 $</t>
+          <t>900 400 $</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>9 498 000 $</t>
+          <t>5 186 055 $</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>En tout temps</t>
+          <t>15 février et 15 septembre</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>31 décembre</t>
+          <t>30 juin</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Causes charitables en général (OXFAM-Québec). Coopération internationale (dans les pays du Sud en donnant de l'eau potable à chacun et partout sur la planète pour les générations à venir). Éducation (développer et enseigner des pratiques d'utilisation responsable et de conservation de l'eau). Environnement (développer des pratiques d'utilisation responsable et de conservation de l'eau et programmes agricoles). Pauvreté (trouver, donner et faciliter l'accès à l'eau). Santé (améliorer la qualité de l'eau).</t>
+          <t>Causes charitables en général (organismes enregistrés). Éducation. Hôpitaux (pour enfants). Jeunesse (démunie et défavorisée du Québec, hébergement ou autres services à l'enfance et à la jeunesse). Malades chroniques. Pauvreté (améliorer la qualité de vie chez les jeunes). Santé. Services sociaux. Sports et loisirs (offrir une loge au Centre Bell pour enfants malades ou défavorisés).</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Activité bénéfice annuelle (Soirées-bénéfice, galas ou concerts, ventes, internet, dons de sociétés et commandites ciblés, contacts ciblés, marketing lié à une cause). Coopération internationale. Environnement (développer des pratiques d'utilisation responsable et de conservation de l'eau).</t>
+          <t>Activité bénéfice annuelle (messages publicitaires à la radio ou à la télévision, ventes aux enchères, tirages, loteries, soirées-bénéfice, galas ou concerts, ventes, internet, dons de sociétés et commandites ciblés, sollicitation par téléphone, etc).</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>Communiquer par : courrier, courriel ou fax. Limites géographiques : le Québec et internationales. Voir le site web.</t>
+          <t>Communiquer par : courrier, courriel ou fax. Formulaire disponible sur demande (sur le site Web). Limites géographiques : le Québec avec emphase sur Montréal. Voir le site web.</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>richard.wilson@onedrop.org</t>
+          <t>fondation@canadiens.com</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>www.onedrop.org</t>
-        </is>
-      </c>
-      <c r="T24" t="inlineStr"/>
+          <t>http://fondation.canadiens.com</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>bkajjouni@centrebell.ca</t>
+        </is>
+      </c>
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr">
         <is>
-          <t>514-723-8983</t>
+          <t>514-989-2890</t>
         </is>
       </c>
       <c r="W24" t="inlineStr"/>
@@ -2736,11 +2808,11 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>317</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2750,52 +2822,48 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Fondation du Club de Hockey Canadien pour l'enfance,</t>
+          <t>Commission scolaire de Montréal,</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>La 1275, rue Saint-Antoine O. Montréal QC H3C5L2</t>
+          <t>3737, rue Sherbrooke Est Montréal QC H1X3B3</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>F</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fondation publique </t>
+          <t xml:space="preserve"> Org. philanthropique </t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Madame Bernadette Kajjouni, Directrice  </t>
+          <t xml:space="preserve">Madame Joëlle Laforet, Trésorière </t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>514-925-2511</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>250 à 47 480 $</t>
-        </is>
-      </c>
+          <t>514-596-6000</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
-          <t>900 400 $</t>
+          <t>100 350 $</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>5 186 055 $</t>
+          <t>130 300 $</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>15 février et 15 septembre</t>
+          <t>En tout temps</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -2805,51 +2873,35 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Causes charitables en général (organismes enregistrés). Éducation. Hôpitaux (pour enfants). Jeunesse (démunie et défavorisée du Québec, hébergement ou autres services à l'enfance et à la jeunesse). Malades chroniques. Pauvreté (améliorer la qualité de vie chez les jeunes). Santé. Services sociaux. Sports et loisirs (offrir une loge au Centre Bell pour enfants malades ou défavorisés).</t>
+          <t>Bibliothèques (collecte de volumes pour les écoles). Causes charitables en général (dons aux écoles de la Commission scolaire de Montréal). Éducation (Écoles et commissions scolaires du réseau d'enseignement public).</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Activité bénéfice annuelle (messages publicitaires à la radio ou à la télévision, ventes aux enchères, tirages, loteries, soirées-bénéfice, galas ou concerts, ventes, internet, dons de sociétés et commandites ciblés, sollicitation par téléphone, etc).</t>
+          <t>Activité bénéfice annuelle (Dons de sociétés et commandites ciblés). Éducation.</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>Communiquer par : courrier, courriel ou fax. Formulaire disponible sur demande (sur le site Web). Limites géographiques : le Québec avec emphase sur Montréal. Voir le site web.</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>fondation@canadiens.com</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>http://fondation.canadiens.com</t>
-        </is>
-      </c>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t>bkajjouni@centrebell.ca</t>
-        </is>
-      </c>
+          <t>Administre ses propres programmes (les écoles de la CSM). Communiquer par : courrier. Limites géographiques : Montréal.</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr">
-        <is>
-          <t>514-989-2890</t>
-        </is>
-      </c>
+      <c r="V25" t="inlineStr"/>
       <c r="W25" t="inlineStr"/>
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>323</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2859,12 +2911,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Commission scolaire de Montréal,</t>
+          <t xml:space="preserve">Concessionnaires d'automobiles de Montréal,  </t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>3737, rue Sherbrooke Est Montréal QC H1X3B3</t>
+          <t>La Fondation de la Corporation des 2335, rue Guénette Saint-Laurent QC H4R2E9</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2874,71 +2926,87 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Org. philanthropique </t>
+          <t xml:space="preserve"> Fondation corporative </t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Madame Joëlle Laforet, Trésorière </t>
+          <t xml:space="preserve">Madame Julie Lachance, Directrice </t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>514-596-6000</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr"/>
+          <t>514-331-6571</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>250 à 1 000 $</t>
+        </is>
+      </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>100 350 $</t>
+          <t>701 015 $</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>130 300 $</t>
+          <t>152 815 $</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>En tout temps</t>
+          <t>Trimestrielle</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>30 juin</t>
+          <t>31 décembre</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Bibliothèques (collecte de volumes pour les écoles). Causes charitables en général (dons aux écoles de la Commission scolaire de Montréal). Éducation (Écoles et commissions scolaires du réseau d'enseignement public).</t>
+          <t>Aînés (services aux personnes âgées). Enfance et jeunesse (hébergement ou autres services). Santé (organismes spécialisés).</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Activité bénéfice annuelle (Dons de sociétés et commandites ciblés). Éducation.</t>
+          <t>Activité bénéfice annuelle (soirées-bénéfice, galas ou concerts). Activités pour les enfants et les jeunes. Bien-être des enfants. Hébergement (jeunes). Projets pour les besoins des aînés. Protection des jeunes.</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>Administre ses propres programmes (les écoles de la CSM). Communiquer par : courrier. Limites géographiques : Montréal.</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr"/>
+          <t>Administre ses propres programmes. Appuie à des projets importants. Communiquer par : courrier ou fax. Décisions rendues après : 3 mois. Dons échelonnés sur plusieurs années. Favorise les organismes communautaires. Joindre la liste des membres du c.a. Joindre le numéro d’enregistrement de charité. Joindre vos états financiers vérifiés et le rapport annuel. Limites géographiques : la grande région de Montréal. Soumettre votre demande par télécopieur (ou courrier). Voir le site web</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>j.lachance@ccam.qc.ca</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>www.ccam.qc.ca</t>
+        </is>
+      </c>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr"/>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>514-331-2045</t>
+        </is>
+      </c>
       <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>344</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2948,102 +3016,70 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Concessionnaires d'automobiles de Montréal,  </t>
+          <t>Routhier,</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>La Fondation de la Corporation des 2335, rue Guénette Saint-Laurent QC H4R2E9</t>
+          <t>9761, boul. des Sciences Montréal QC H1J0A6</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Fondation corporative </t>
-        </is>
-      </c>
+          <t xml:space="preserve">F  </t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Madame Julie Lachance, Directrice </t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>514-331-6571</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>250 à 1 000 $</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>701 015 $</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>152 815 $</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>Trimestrielle</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>31 décembre</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Mme Fernande Bernier </t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Aînés (services aux personnes âgées). Enfance et jeunesse (hébergement ou autres services). Santé (organismes spécialisés).</t>
+          <t xml:space="preserve">Hébergement et autres services à l’enfance et à la jeu-nesse. </t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Activité bénéfice annuelle (soirées-bénéfice, galas ou concerts). Activités pour les enfants et les jeunes. Bien-être des enfants. Hébergement (jeunes). Projets pour les besoins des aînés. Protection des jeunes.</t>
-        </is>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>Administre ses propres programmes. Appuie à des projets importants. Communiquer par : courrier ou fax. Décisions rendues après : 3 mois. Dons échelonnés sur plusieurs années. Favorise les organismes communautaires. Joindre la liste des membres du c.a. Joindre le numéro d’enregistrement de charité. Joindre vos états financiers vérifiés et le rapport annuel. Limites géographiques : la grande région de Montréal. Soumettre votre demande par télécopieur (ou courrier). Voir le site web</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Dons à des donataires reconnus qui fournissent de l'aide aux enfants défavorisés du quartier Hochelaga-Maisonneuve. </t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
         <is>
-          <t>j.lachance@ccam.qc.ca</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>www.ccam.qc.ca</t>
-        </is>
-      </c>
+          <t>fernande.bernier@clarose.com</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr">
-        <is>
-          <t>514-331-2045</t>
-        </is>
-      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Locales. </t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr"/>
       <c r="W27" t="inlineStr"/>
-      <c r="X27" t="inlineStr"/>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 226 624 $</t>
+        </is>
+      </c>
       <c r="Y27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>373</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -3053,70 +3089,102 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Routhier,</t>
+          <t>Desjardins</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>9761, boul. des Sciences Montréal QC H1J0A6</t>
+          <t>1, Complexe Desjardins, Tour Sud C.P. 7, succ. Desjardins Montréal QC H5B1B2</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t xml:space="preserve">F  </t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr"/>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fondation corporative </t>
+        </is>
+      </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mme Fernande Bernier </t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
+          <t xml:space="preserve">Madame Louise-Marie Brousseau, Secrétariat </t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>514-281-7736</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>1 000 à 7 750 $</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>246 900 $</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>18 358 260 $</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>1er mars</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>31 décembre</t>
+        </is>
+      </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hébergement et autres services à l’enfance et à la jeu-nesse. </t>
+          <t>Arts et culture. Éducation (Bourses d'études, bourses d'entretien, etc, Préparation et formation en vue d'un emploi). Institutions d'enseignement (subventionner certaines institutions faisant au Canada des recherches dans les domaines énumérés). Recherche (dans les domaines de la coopération, l'économie, la finance, l'administration, les sciences et l'art). Services sociaux (aide à l'engagement communautaire). Universités.</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dons à des donataires reconnus qui fournissent de l'aide aux enfants défavorisés du quartier Hochelaga-Maisonneuve. </t>
-        </is>
-      </c>
-      <c r="Q28" t="inlineStr"/>
+          <t>Activité bénéfice annuelle (Boîtes de collecte, soirées-bénéfice, galas ou concerts, campagnes de financement par la poste, programmes de dons planifiés, tournois, événements sportifs). Bourses aux particuliers (Accorder des bourses d'études et de perfectionnement, des prix ou autres formes d'aide financière à des personnes désireuses d'entreprendre ou de poursuivre des études ou des recherches dans des institutions d'enseignement). Lutte contre le décrochage scolaire ou intégration au marché du travail (Un fonds distinct a été créé pour soutenir la lutte au décrochage scolaire. Prix à des entrepreneurs dans le but de favoriser la création d'emploi).</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>Administre ses propres programmes. Communiquer par : courrier, courriel, fax ou téléphone. Limites géographiques : le Québec et l'Ontario dans les régions où sont situées les Caisses Desjardins. Voir le site web.</t>
+        </is>
+      </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>fernande.bernier@clarose.com</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr"/>
+          <t>louise-marie.brousseau@desjardins.com</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>www.desjardins.com/fondation</t>
+        </is>
+      </c>
       <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Locales. </t>
-        </is>
-      </c>
-      <c r="V28" t="inlineStr"/>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>514-281-2391</t>
+        </is>
+      </c>
       <c r="W28" t="inlineStr"/>
-      <c r="X28" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 226 624 $</t>
-        </is>
-      </c>
+      <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>392</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3126,12 +3194,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Desjardins</t>
+          <t>Divco Foundation,</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1, Complexe Desjardins, Tour Sud C.P. 7, succ. Desjardins Montréal QC H5B1B2</t>
+          <t>8300, boul. Pie IX Montréal QC H1Z4E8</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -3146,69 +3214,61 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Madame Louise-Marie Brousseau, Secrétariat </t>
+          <t xml:space="preserve">Mr Sam Aberman, Director </t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>514-281-7736</t>
+          <t>514-593-8888</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>1 000 à 7 750 $</t>
+          <t>150 à 154 935 $</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>246 900 $</t>
+          <t>345 400 $</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>18 358 260 $</t>
+          <t>155 900 $</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>1er mars</t>
+          <t>En tout temps</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>31 décembre</t>
+          <t>30 novembre</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Arts et culture. Éducation (Bourses d'études, bourses d'entretien, etc, Préparation et formation en vue d'un emploi). Institutions d'enseignement (subventionner certaines institutions faisant au Canada des recherches dans les domaines énumérés). Recherche (dans les domaines de la coopération, l'économie, la finance, l'administration, les sciences et l'art). Services sociaux (aide à l'engagement communautaire). Universités.</t>
+          <t>Arts et culture. Causes charitables en général (organismes enregistrés). Coopération internationale. Éducation. Hôpitaux. Organismes religieux (juifs, lieux de culte, congrégations, paroisses, diocèses, etc). Santé (Hôpitaux, Organismes de santé spécialisés). Santé mentale (Organismes de santé spécialisés). Services sociaux. Sports et loisirs. Universités.</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Activité bénéfice annuelle (Boîtes de collecte, soirées-bénéfice, galas ou concerts, campagnes de financement par la poste, programmes de dons planifiés, tournois, événements sportifs). Bourses aux particuliers (Accorder des bourses d'études et de perfectionnement, des prix ou autres formes d'aide financière à des personnes désireuses d'entreprendre ou de poursuivre des études ou des recherches dans des institutions d'enseignement). Lutte contre le décrochage scolaire ou intégration au marché du travail (Un fonds distinct a été créé pour soutenir la lutte au décrochage scolaire. Prix à des entrepreneurs dans le but de favoriser la création d'emploi).</t>
+          <t>Coopération internationale. Éducation. Fondations hospitalières. Organismes (communautaires juifs). Santé.</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>Administre ses propres programmes. Communiquer par : courrier, courriel, fax ou téléphone. Limites géographiques : le Québec et l'Ontario dans les régions où sont situées les Caisses Desjardins. Voir le site web.</t>
-        </is>
-      </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>louise-marie.brousseau@desjardins.com</t>
-        </is>
-      </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>www.desjardins.com/fondation</t>
-        </is>
-      </c>
+          <t>Communiquer par : courrier ou fax. Limites géographiques : le Québec avec emphase sur Montréal et internationales.</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr">
         <is>
-          <t>514-281-2391</t>
+          <t>514-593-4828</t>
         </is>
       </c>
       <c r="W29" t="inlineStr"/>
@@ -3217,11 +3277,11 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>473</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -3231,47 +3291,47 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Divco Foundation,</t>
+          <t xml:space="preserve">Fondation Tremblant </t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>8300, boul. Pie IX Montréal QC H1Z4E8</t>
+          <t>C.P. 4471 Mont-Tremblant QC J8E1A1</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>F</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fondation corporative </t>
+          <t xml:space="preserve"> Fondation publique </t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mr Sam Aberman, Director </t>
+          <t xml:space="preserve">Madame Thérèse Barrette, Secrétaire-Trésorière </t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>514-593-8888</t>
+          <t>819-425-2837</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>150 à 154 935 $</t>
+          <t>700 à 2 000 $</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>345 400 $</t>
+          <t>294 535 $</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>155 900 $</t>
+          <t>1 157 300 $</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
@@ -3281,44 +3341,48 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>30 novembre</t>
+          <t>31 décembre</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Arts et culture. Causes charitables en général (organismes enregistrés). Coopération internationale. Éducation. Hôpitaux. Organismes religieux (juifs, lieux de culte, congrégations, paroisses, diocèses, etc). Santé (Hôpitaux, Organismes de santé spécialisés). Santé mentale (Organismes de santé spécialisés). Services sociaux. Sports et loisirs. Universités.</t>
+          <t>Alimentation (santé; programme déjeuners et Boîtes à lunch dans les écoles, achat de vêtements, articles scolaires etc). Causes charitables en général (organismes enregistrés oeuvrant auprès des jeunes défavorisés de la MRC Laurentides). Centres de plein air (et camps d'été; colonies de vacances). Décrochage scolaire. Éducation. Famille (counselling et soutien). Jeunesse (démunie de la MRC des Laurentides). Services sociaux. Sports et loisirs (fournir des équipements sportifs pour l'aide à la réussite scolaire). Toxicomanie (contrer l'usage de la drogue chez les adolescents).</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Coopération internationale. Éducation. Fondations hospitalières. Organismes (communautaires juifs). Santé.</t>
+          <t>Activité bénéfice annuelle (Ventes aux enchères). Écoles (pour le programme Boîtes à Lunch). Fondations Cegeps. Fonds d'équipement (sportif pour diminuer le décrochage scolaire).</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>Communiquer par : courrier ou fax. Limites géographiques : le Québec avec emphase sur Montréal et internationales.</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr"/>
+          <t>Communiquer par : courrier ou courriel. Favorise les organismes communautaires. Limites géographiques : la MRC des Laurentides. Voir le site web.</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>info@fondationtremblant.com</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>http://fondationtremblant.com</t>
+        </is>
+      </c>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr">
-        <is>
-          <t>514-593-4828</t>
-        </is>
-      </c>
+      <c r="V30" t="inlineStr"/>
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>473</t>
+          <t>481</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -3328,52 +3392,44 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fondation Tremblant </t>
+          <t>Fondation Bon départ</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>C.P. 4471 Mont-Tremblant QC J8E1A1</t>
+          <t>189, boul. Hymus, bur. 601 Pointe-Claire, QC H9R1E9</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>F</t>
+          <t xml:space="preserve">F </t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fondation publique </t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Madame Thérèse Barrette, Secrétaire-Trésorière </t>
-        </is>
-      </c>
+          <t xml:space="preserve">Fondation corporative </t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>819-425-2837</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>700 à 2 000 $</t>
-        </is>
-      </c>
+          <t>514 693.6456</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
-          <t>294 535 $</t>
+          <t>1 140 350 $</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>1 157 300 $</t>
+          <t>7 606 800 $</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>En tout temps</t>
+          <t>En tout temps.</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -3383,43 +3439,43 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Alimentation (santé; programme déjeuners et Boîtes à lunch dans les écoles, achat de vêtements, articles scolaires etc). Causes charitables en général (organismes enregistrés oeuvrant auprès des jeunes défavorisés de la MRC Laurentides). Centres de plein air (et camps d'été; colonies de vacances). Décrochage scolaire. Éducation. Famille (counselling et soutien). Jeunesse (démunie de la MRC des Laurentides). Services sociaux. Sports et loisirs (fournir des équipements sportifs pour l'aide à la réussite scolaire). Toxicomanie (contrer l'usage de la drogue chez les adolescents).</t>
+          <t xml:space="preserve">Bien être des enfants. Appui des enfants et des adultes vivant en situation de vulnérabilité en offrant des séjours de répit et de camps de vacances à sa Base de plein air Bon départ. </t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Activité bénéfice annuelle (Ventes aux enchères). Écoles (pour le programme Boîtes à Lunch). Fondations Cegeps. Fonds d'équipement (sportif pour diminuer le décrochage scolaire).</t>
-        </is>
-      </c>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>Communiquer par : courrier ou courriel. Favorise les organismes communautaires. Limites géographiques : la MRC des Laurentides. Voir le site web.</t>
-        </is>
-      </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>info@fondationtremblant.com</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Soutient également différents organismes communau-taires, afin d’améliorer la qualité de vie des enfants et de leurs familles, no-tamment en contribuant au développement de saines habitudes de vie et à leur mieux-être. </t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr">
         <is>
-          <t>http://fondationtremblant.com</t>
+          <t>http://www.fondationbondepart.ca/</t>
         </is>
       </c>
       <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> le Québec. </t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>514 693.6460 1 855 693.6555</t>
+        </is>
+      </c>
       <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>481</t>
+          <t>525</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -3429,44 +3485,52 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Fondation Bon départ</t>
+          <t>Gazette</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>189, boul. Hymus, bur. 601 Pointe-Claire, QC H9R1E9</t>
+          <t>A Division of Southam 1010, rue Ste-Catherine O., bur. 200 Montréal QC H3B5L1</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t xml:space="preserve">F </t>
+          <t>A</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fondation corporative </t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr"/>
+          <t xml:space="preserve"> Fondation privée </t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mrs Eileen Flood, Coordinator </t>
+        </is>
+      </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>514 693.6456</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr"/>
+          <t>514-987-2210</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>100 à 26 700 $</t>
+        </is>
+      </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>1 140 350 $</t>
+          <t>49 700 $</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>7 606 800 $</t>
+          <t>49 700 $</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>En tout temps.</t>
+          <t>En tout temps</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -3476,30 +3540,30 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bien être des enfants. Appui des enfants et des adultes vivant en situation de vulnérabilité en offrant des séjours de répit et de camps de vacances à sa Base de plein air Bon départ. </t>
-        </is>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Soutient également différents organismes communau-taires, afin d’améliorer la qualité de vie des enfants et de leurs familles, no-tamment en contribuant au développement de saines habitudes de vie et à leur mieux-être. </t>
-        </is>
-      </c>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
+          <t>Causes charitables en général. Centraide. Handicapés physiques et intellectuels. Malades chroniques (du cancer, diabète et Alzheimer). Pauvreté (logement pour personnes à faible revenu/ âgées/). Santé. Santé mentale (organismes spécialisés). Services sociaux.</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>Administre ses propres programmes. Communiquer par : courrier, courriel ou fax. Favorise les organismes communautaires. Voir le site web.</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>eflood@thegazette.canwest.com</t>
+        </is>
+      </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>http://www.fondationbondepart.ca/</t>
+          <t>www.canada.com/montreal/montrealgazette</t>
         </is>
       </c>
       <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> le Québec. </t>
-        </is>
-      </c>
+      <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr">
         <is>
-          <t>514 693.6460 1 855 693.6555</t>
+          <t>514-987-2600</t>
         </is>
       </c>
       <c r="W32" t="inlineStr"/>
@@ -3508,11 +3572,11 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>553</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -3522,12 +3586,12 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Gazette</t>
+          <t>GlaxoSmithKline Foundation,</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>A Division of Southam 1010, rue Ste-Catherine O., bur. 200 Montréal QC H3B5L1</t>
+          <t>7333 Mississauga Rd North Mississauga ON L5N6L4</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -3537,32 +3601,32 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fondation privée </t>
+          <t xml:space="preserve"> Fondation corporative </t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mrs Eileen Flood, Coordinator </t>
+          <t xml:space="preserve">Mr Paul Lirette, President &amp; Director </t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>514-987-2210</t>
+          <t>905-819-3000</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>100 à 26 700 $</t>
+          <t>20 à 175 000 $</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>49 700 $</t>
+          <t>586 400 $</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>49 700 $</t>
+          <t>31 755 $</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
@@ -3577,30 +3641,30 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Causes charitables en général. Centraide. Handicapés physiques et intellectuels. Malades chroniques (du cancer, diabète et Alzheimer). Pauvreté (logement pour personnes à faible revenu/ âgées/). Santé. Santé mentale (organismes spécialisés). Services sociaux.</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr"/>
+          <t>Arts et culture. Causes charitables en général (organismes canadiens enregistrés). Centraide. Éducation. Environnement. Hôpitaux (Établissements de soins infirmiers, hospices). Maladies (VIH/Sida, asthme, cancer, diabète et maladies pulmonaires et respiratoires). Santé (promotion). Organismes de santé spécialisés. Santé mentale. Sciences et sciences sociales. Service humanitaire. Services communautaires (et programmes). Services sociaux. Soins palliatifs. Sports et loisirs.</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Dons jumelés. Éducation. Projets spéciaux (locaux). Santé. Sciences. Soins palliatifs.</t>
+        </is>
+      </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>Administre ses propres programmes. Communiquer par : courrier, courriel ou fax. Favorise les organismes communautaires. Voir le site web.</t>
-        </is>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>eflood@thegazette.canwest.com</t>
-        </is>
-      </c>
+          <t>Communiquer par : courrier seulement. Décisions rendues après : 8 semaines. Formulaire disponible sur le site web. Joindre le numéro d’enregistrement de charité. Limites géographiques : le Canada avec emphase sur Ville St-Laurent Qc pour le projet sur le Sida; écrire au Manager HIV/Aids Community Relations, 8455, Rte Transcanadienne, St-Laurent H4S 1Z1; Tél. : 514-738-8886 - Fax : 514-956-3188. Soumettre d'abord un résumé du projet (les projets compatibles avec les objectifs de la Fondation). Voir le site web.</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr">
         <is>
-          <t>www.canada.com/montreal/montrealgazette</t>
+          <t>www.gsk.ca/french/html/role-social/gsk- foundation.html</t>
         </is>
       </c>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr">
         <is>
-          <t>514-987-2600</t>
+          <t>905-819-3348</t>
         </is>
       </c>
       <c r="W33" t="inlineStr"/>
@@ -3609,11 +3673,11 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>553</t>
+          <t>612</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -3623,17 +3687,17 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>GlaxoSmithKline Foundation,</t>
+          <t>Home Depot Canada Foundation,</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>7333 Mississauga Rd North Mississauga ON L5N6L4</t>
+          <t>1 Concorde Gate, Suite 900 Toronto ON M3C4H9</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -3643,27 +3707,27 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mr Paul Lirette, President &amp; Director </t>
+          <t xml:space="preserve">Mrs Pamela O'Rourke, Vice-chair </t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>905-819-3000</t>
+          <t>416-609-0852</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>20 à 175 000 $</t>
+          <t>800 à 830 000 $</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>586 400 $</t>
+          <t>2 958 745 $</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>31 755 $</t>
+          <t>1 980 000 $</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
@@ -3673,35 +3737,39 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>31 décembre</t>
+          <t>30 décembre</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Arts et culture. Causes charitables en général (organismes canadiens enregistrés). Centraide. Éducation. Environnement. Hôpitaux (Établissements de soins infirmiers, hospices). Maladies (VIH/Sida, asthme, cancer, diabète et maladies pulmonaires et respiratoires). Santé (promotion). Organismes de santé spécialisés. Santé mentale. Sciences et sciences sociales. Service humanitaire. Services communautaires (et programmes). Services sociaux. Soins palliatifs. Sports et loisirs.</t>
+          <t>Aide aux sinistrés (désastres naturels). Causes charitables en général (organismes enregistrés). Environnement. Maisons de transition. Maisons d'hébergement. Pauvreté. Services sociaux.</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Dons jumelés. Éducation. Projets spéciaux (locaux). Santé. Sciences. Soins palliatifs.</t>
+          <t>Activité bénéfice annuelle (Soirées-bénéfice, galas ou concerts, dons de sociétés et commandites ciblés). Campagne de financement.</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>Communiquer par : courrier seulement. Décisions rendues après : 8 semaines. Formulaire disponible sur le site web. Joindre le numéro d’enregistrement de charité. Limites géographiques : le Canada avec emphase sur Ville St-Laurent Qc pour le projet sur le Sida; écrire au Manager HIV/Aids Community Relations, 8455, Rte Transcanadienne, St-Laurent H4S 1Z1; Tél. : 514-738-8886 - Fax : 514-956-3188. Soumettre d'abord un résumé du projet (les projets compatibles avec les objectifs de la Fondation). Voir le site web.</t>
-        </is>
-      </c>
-      <c r="R34" t="inlineStr"/>
+          <t>Communiquer par : courrier, courriel ou fax. Formulaire disponible sur site web. Limites géographiques : le Canada. Voir le site web.</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>canadafoundation@homedepot.com</t>
+        </is>
+      </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>www.gsk.ca/french/html/role-social/gsk- foundation.html</t>
+          <t>www.homedepot.ca/foundation</t>
         </is>
       </c>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr">
         <is>
-          <t>905-819-3348</t>
+          <t>416-412-6792</t>
         </is>
       </c>
       <c r="W34" t="inlineStr"/>
@@ -3710,11 +3778,11 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>612</t>
+          <t>614</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -3724,12 +3792,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Home Depot Canada Foundation,</t>
+          <t xml:space="preserve">Honda Canada Foundation </t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>1 Concorde Gate, Suite 900 Toronto ON M3C4H9</t>
+          <t>180 Honda boul. Markham ON L6C0H9</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -3744,69 +3812,69 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mrs Pamela O'Rourke, Vice-chair </t>
+          <t xml:space="preserve">Mrs Eleanor Hendrickson </t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>416-609-0852</t>
+          <t>905-888-8110</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>800 à 830 000 $</t>
+          <t>5 000 à 100 000 $</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>2 958 745 $</t>
+          <t>250 000 $</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>1 980 000 $</t>
+          <t>8 883 500 $</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>En tout temps</t>
+          <t>1 février, 1 mai, 1 août et  1 novembre</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>30 décembre</t>
+          <t>31 mars</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Aide aux sinistrés (désastres naturels). Causes charitables en général (organismes enregistrés). Environnement. Maisons de transition. Maisons d'hébergement. Pauvreté. Services sociaux.</t>
+          <t>Causes charitables en général (organismes canadiens enregistrés qui partagent les critères de la Fondation). Développement social. Éducation (études élémentaires, secondaires, collégiales et universitaires). Environnement (humain et naturel). Jeunesse. Recherche (en ingénierie). Science et technologie (en ingénierie et éducation). Services sociaux.</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Activité bénéfice annuelle (Soirées-bénéfice, galas ou concerts, dons de sociétés et commandites ciblés). Campagne de financement.</t>
+          <t>Dons jumelés. Fonds de fonctionnement ou d'opération. Fonds pour programmes et services. Projets de recherches.</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>Communiquer par : courrier, courriel ou fax. Formulaire disponible sur site web. Limites géographiques : le Canada. Voir le site web.</t>
+          <t>Communiquer par : courrier. Formulaire disponible sur demande (sur le site web seulement). Limites géographiques : le Canada. Voir le site web.</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>canadafoundation@homedepot.com</t>
+          <t>eleanor_hendrickson@ch.honda.com</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>www.homedepot.ca/foundation</t>
+          <t>www.hondacanadafoundation.ca/fr</t>
         </is>
       </c>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr">
         <is>
-          <t>416-412-6792</t>
+          <t>416-865-7048</t>
         </is>
       </c>
       <c r="W35" t="inlineStr"/>
@@ -3815,11 +3883,11 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>630</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -3829,17 +3897,17 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Honda Canada Foundation </t>
+          <t>Hydro Québec pour l'Environnement,</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>180 Honda boul. Markham ON L6C0H9</t>
+          <t>75, boul. René-Lévesque O., 2ième étage Montréal QC H2Z1A4</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>F</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -3849,69 +3917,69 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mrs Eleanor Hendrickson </t>
+          <t xml:space="preserve">Monsieur Carlo Gagliardi, Directeur </t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>905-888-8110</t>
+          <t>514-289-5384</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>5 000 à 100 000 $</t>
+          <t>6 000 à 66 000 $</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>250 000 $</t>
+          <t>393 900 $</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>8 883 500 $</t>
+          <t>1 013 900 $</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>1 février, 1 mai, 1 août et  1 novembre</t>
+          <t>1er février et 15 septembre</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>31 mars</t>
+          <t>31 décembre</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Causes charitables en général (organismes canadiens enregistrés qui partagent les critères de la Fondation). Développement social. Éducation (études élémentaires, secondaires, collégiales et universitaires). Environnement (humain et naturel). Jeunesse. Recherche (en ingénierie). Science et technologie (en ingénierie et éducation). Services sociaux.</t>
+          <t>Environnement (protéger, restaurer et mettre en valeur des milieux naturels). Faune (flore et habitats naturels; la mise en valeur).</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Dons jumelés. Fonds de fonctionnement ou d'opération. Fonds pour programmes et services. Projets de recherches.</t>
+          <t>Environnement (soutenir les besoins locaux et communautaires associés à l'environnement, utilisation des ressources naturelles).</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>Communiquer par : courrier. Formulaire disponible sur demande (sur le site web seulement). Limites géographiques : le Canada. Voir le site web.</t>
+          <t>Communiquer par : courrier, courriel ou fax. Formulaire disponible sur le site web. Joindre la liste des membres du c.a. Joindre vos états financiers vérifiés et le rapport annuel. Limites géographiques : le Québec. Soumettre d'abord un résumé du projet (1 à 2 pages en 2 copies et un dossier de candidature). Voir le site web.</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>eleanor_hendrickson@ch.honda.com</t>
+          <t>fondation-environnement@hydro.qc.ca</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>www.hondacanadafoundation.ca/fr</t>
+          <t>http://www.hydroquebec.com/fondation- environnement/</t>
         </is>
       </c>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr">
         <is>
-          <t>416-865-7048</t>
+          <t>514-289-2840</t>
         </is>
       </c>
       <c r="W36" t="inlineStr"/>
@@ -3920,11 +3988,11 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>630</t>
+          <t>639</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -3934,102 +4002,66 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Hydro Québec pour l'Environnement,</t>
+          <t>La Fondation IKEA,</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>75, boul. René-Lévesque O., 2ième étage Montréal QC H2Z1A4</t>
+          <t>P.O. Box 11 134 2301 EC Leiden The Netherlands</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>F</t>
+          <t xml:space="preserve">B </t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fondation corporative </t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Monsieur Carlo Gagliardi, Directeur </t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>514-289-5384</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>6 000 à 66 000 $</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>393 900 $</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>1 013 900 $</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>1er février et 15 septembre</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>31 décembre</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Fondation corporative </t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Environnement (protéger, restaurer et mettre en valeur des milieux naturels). Faune (flore et habitats naturels; la mise en valeur).</t>
+          <t xml:space="preserve">Bien être des enfants. Environnement. Pauvreté. Santé Offrir aux enfants un avenir plus prometteur par la santé et un meilleur envi-ronnement global. </t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Environnement (soutenir les besoins locaux et communautaires associés à l'environnement, utilisation des ressources naturelles).</t>
-        </is>
-      </c>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>Communiquer par : courrier, courriel ou fax. Formulaire disponible sur le site web. Joindre la liste des membres du c.a. Joindre vos états financiers vérifiés et le rapport annuel. Limites géographiques : le Québec. Soumettre d'abord un résumé du projet (1 à 2 pages en 2 copies et un dossier de candidature). Voir le site web.</t>
-        </is>
-      </c>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>fondation-environnement@hydro.qc.ca</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Soutient des familles en milieu défavorisé tout en proté-geant l’environnement. </t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr">
         <is>
-          <t>http://www.hydroquebec.com/fondation- environnement/</t>
+          <t>https://ikeafoundation.org/</t>
         </is>
       </c>
       <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr">
-        <is>
-          <t>514-289-2840</t>
-        </is>
-      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> internationales. </t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr"/>
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>639</t>
+          <t>641</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -4039,66 +4071,98 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>La Fondation IKEA,</t>
+          <t>Imperial Tobacco Montréal,</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>P.O. Box 11 134 2301 EC Leiden The Netherlands</t>
+          <t>d' 3711, rue St-Antoine O. Montréal QC H4C3P6</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t xml:space="preserve">B </t>
+          <t>B</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fondation corporative </t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
+          <t xml:space="preserve"> Fonds d’employés </t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Monsieur Gasper Spagnolo, Président </t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>514-932-6161</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>1 000 à 3 000 $</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>25 000 $</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>17 100 $</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>En tout temps</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>31 décembre</t>
+        </is>
+      </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bien être des enfants. Environnement. Pauvreté. Santé Offrir aux enfants un avenir plus prometteur par la santé et un meilleur envi-ronnement global. </t>
+          <t>Causes charitables en général (organismes enregistrés). Centraide (du Grand Montréal). Santé. Santé mentale. Services sociaux.</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Soutient des familles en milieu défavorisé tout en proté-geant l’environnement. </t>
-        </is>
-      </c>
-      <c r="Q38" t="inlineStr"/>
+          <t>Campagne de financement. Dons jumelés (avec les employés). Organismes (communautaires).</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>Communiquer par : courrier ou fax. Favorise les organismes communautaires. Limites géographiques : Montréal.</t>
+        </is>
+      </c>
       <c r="R38" t="inlineStr"/>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>https://ikeafoundation.org/</t>
-        </is>
-      </c>
+      <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> internationales. </t>
-        </is>
-      </c>
-      <c r="V38" t="inlineStr"/>
-      <c r="W38" t="inlineStr"/>
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>514-932-3767</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>2354</t>
+        </is>
+      </c>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>641</t>
+          <t>656</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -4108,47 +4172,47 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Imperial Tobacco Montréal,</t>
+          <t xml:space="preserve">Intact Foundation / Fondation Intact </t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>d' 3711, rue St-Antoine O. Montréal QC H4C3P6</t>
+          <t>700, University Ave, bur. 1500 Toronto ON M5G0A1</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>F</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fonds d’employés </t>
+          <t xml:space="preserve"> Fondation privée </t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Monsieur Gasper Spagnolo, Président </t>
+          <t xml:space="preserve">Mrs Sylvia Gelissen, Director </t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>514-932-6161</t>
+          <t>416-440-8744</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>1 000 à 3 000 $</t>
+          <t>250 à 36 460 $</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>25 000 $</t>
+          <t>3 435 900 $</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>17 100 $</t>
+          <t>2 669 600 $</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
@@ -4163,43 +4227,43 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Causes charitables en général (organismes enregistrés). Centraide (du Grand Montréal). Santé. Santé mentale. Services sociaux.</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>Campagne de financement. Dons jumelés (avec les employés). Organismes (communautaires).</t>
-        </is>
-      </c>
+          <t>Arts et culture. Causes charitables en général. Centraide. Décrochage scolaire. Éducation. Enfance et jeunesse. Environnement. Exclusion (itinérants). Famille (counselling, etc). Femmes et causes féminines. Handicapés physiques et intellectuels (autistes). Hôpitaux. Jeunesse. Maladies (diabète, cancer, alzheimer et autres). Pauvreté. Santé mentale. Services sociaux. Toxicomanie. Universités.</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>Communiquer par : courrier ou fax. Favorise les organismes communautaires. Limites géographiques : Montréal.</t>
-        </is>
-      </c>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="inlineStr"/>
+          <t>Appuie à des projets importants (le programme Atout Coeur au Canada, implication sociale). Communiquer par : courrier, courriel ou fax. Limites géographiques : le Québec. Voir le site web.</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>yves.poulin@intact.net</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>www.intact.net</t>
+        </is>
+      </c>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr">
         <is>
-          <t>514-932-3767</t>
-        </is>
-      </c>
-      <c r="W39" t="inlineStr">
-        <is>
-          <t>2354</t>
-        </is>
-      </c>
+          <t>416-440-8970</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>656</t>
+          <t>676</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -4209,47 +4273,47 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Intact Foundation / Fondation Intact </t>
+          <t>Jarislowsky Fraser Donor Advised Foundation,</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>700, University Ave, bur. 1500 Toronto ON M5G0A1</t>
+          <t>des Donateurs Jarislowsky Fraser 1010, rue Sherbrooke O., bur. 2005 Montréal QC H3A2R7</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fondation privée </t>
+          <t xml:space="preserve"> Fondation publique </t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mrs Sylvia Gelissen, Director </t>
+          <t xml:space="preserve">Mrs Erin O'Brien, Secretariat </t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>416-440-8744</t>
+          <t>514-842-2727</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>250 à 36 460 $</t>
+          <t>250 à 910 300 $</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>3 435 900 $</t>
+          <t>1 014 200 $</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>2 669 600 $</t>
+          <t>2 959 700 $</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
@@ -4264,30 +4328,34 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Arts et culture. Causes charitables en général. Centraide. Décrochage scolaire. Éducation. Enfance et jeunesse. Environnement. Exclusion (itinérants). Famille (counselling, etc). Femmes et causes féminines. Handicapés physiques et intellectuels (autistes). Hôpitaux. Jeunesse. Maladies (diabète, cancer, alzheimer et autres). Pauvreté. Santé mentale. Services sociaux. Toxicomanie. Universités.</t>
-        </is>
-      </c>
-      <c r="P40" t="inlineStr"/>
+          <t>Bibliothèques (librairies). Causes charitables en général (organismes enregistrés). Maladies. Musique. Organismes religieux. Services sociaux. Universités.</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fondations hospitalières. </t>
+        </is>
+      </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>Appuie à des projets importants (le programme Atout Coeur au Canada, implication sociale). Communiquer par : courrier, courriel ou fax. Limites géographiques : le Québec. Voir le site web.</t>
+          <t>Communiquer par : courrier, courriel ou fax. Limites géographiques : le Québec et l'Ontario. Voir le site web.</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>yves.poulin@intact.net</t>
+          <t>donor-foundation@jfl.ca</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>www.intact.net</t>
+          <t>www.jfl.ca/fondation/index.htm</t>
         </is>
       </c>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr">
         <is>
-          <t>416-440-8970</t>
+          <t>514-842-1882</t>
         </is>
       </c>
       <c r="W40" t="inlineStr"/>
@@ -4296,11 +4364,11 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>676</t>
+          <t>677</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -4310,47 +4378,47 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Jarislowsky Fraser Donor Advised Foundation,</t>
+          <t>Coutu,</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>des Donateurs Jarislowsky Fraser 1010, rue Sherbrooke O., bur. 2005 Montréal QC H3A2R7</t>
+          <t>1374, av. du Mont-Royal E., bur. 104 Montréal QC H2J1Y7</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>F</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fondation publique </t>
+          <t xml:space="preserve"> Fondation privée </t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mrs Erin O'Brien, Secretariat </t>
+          <t xml:space="preserve">Madame Marie-Josée Coutu, Présidente </t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>514-842-2727</t>
+          <t>514-527-4510</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>250 à 910 300 $</t>
+          <t>250 à 1 083 120 $</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>1 014 200 $</t>
+          <t>8 524 975 $</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>2 959 700 $</t>
+          <t>544 584 600 $</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
@@ -4360,39 +4428,35 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>31 décembre</t>
+          <t>28 février</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Bibliothèques (librairies). Causes charitables en général (organismes enregistrés). Maladies. Musique. Organismes religieux. Services sociaux. Universités.</t>
+          <t>Arts et culture. Causes charitables en général (organismes enregistrés). Centraide. Coopération internationale (Missions et les pays en voie de développement). Éducation. Enfance et jeunesse. Enfants maltraîtés / abusés (au Québec et au Canada). Environnement. Femmes et causes féminines (femmes maltraîtées). Jeunesse. Organismes religieux. Pauvreté (personnes démunies). Santé. Sciences et sciences sociales. Services sociaux (internationaux). Sports et loisirs. Toxicomanie (prévention et la lutte contre l'usage des drogues au Québec et au Canada). Universités.</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fondations hospitalières. </t>
+          <t>Coopération internationale. Projets spéciaux.</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>Communiquer par : courrier, courriel ou fax. Limites géographiques : le Québec et l'Ontario. Voir le site web.</t>
+          <t>Communiquer par : courrier, courriel ou fax. Limites géographiques : le Canada avec emphase sur le Québec et internationales.</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>donor-foundation@jfl.ca</t>
-        </is>
-      </c>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>www.jfl.ca/fondation/index.htm</t>
-        </is>
-      </c>
+          <t>lyne.ofarell@sympatico.ca</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr">
         <is>
-          <t>514-842-1882</t>
+          <t>514-527-4917</t>
         </is>
       </c>
       <c r="W41" t="inlineStr"/>
@@ -4401,11 +4465,11 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>677</t>
+          <t>701</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -4415,47 +4479,47 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Coutu,</t>
+          <t>KPMG Foundation,</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>1374, av. du Mont-Royal E., bur. 104 Montréal QC H2J1Y7</t>
+          <t>393 University Ave, Suite 1100 Toronto ON M5G2N9</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fondation privée </t>
+          <t xml:space="preserve"> Fondation corporative </t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Madame Marie-Josée Coutu, Présidente </t>
+          <t xml:space="preserve">Mr Covy C. Maree Mootoo, Manager / Partner  Accounts </t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>514-527-4510</t>
+          <t>416-777-3144</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>250 à 1 083 120 $</t>
+          <t>500 à 50 000 $</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>8 524 975 $</t>
+          <t>1 378 900 $</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>544 584 600 $</t>
+          <t>9 700 $</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
@@ -4465,35 +4529,39 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>28 février</t>
+          <t>31 décembre</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Arts et culture. Causes charitables en général (organismes enregistrés). Centraide. Coopération internationale (Missions et les pays en voie de développement). Éducation. Enfance et jeunesse. Enfants maltraîtés / abusés (au Québec et au Canada). Environnement. Femmes et causes féminines (femmes maltraîtées). Jeunesse. Organismes religieux. Pauvreté (personnes démunies). Santé. Sciences et sciences sociales. Services sociaux (internationaux). Sports et loisirs. Toxicomanie (prévention et la lutte contre l'usage des drogues au Québec et au Canada). Universités.</t>
+          <t>Arts et culture. Éducation. Enfance et jeunesse. Institutions d'enseignement (post-secondaire). Santé (soins). Services communautaires. Universités (canadiennes).</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Coopération internationale. Projets spéciaux.</t>
+          <t>Amélioration de la qualité de vie (en soins de santé pour les enfants et les jeunes en milieu communautaire et artistique). Dons jumelés (avec les employés pour les institutions post-secondaires).</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>Communiquer par : courrier, courriel ou fax. Limites géographiques : le Canada avec emphase sur le Québec et internationales.</t>
+          <t>Communiquer par : courrier, courriel ou fax. Limites géographiques : le Canada. Voir le site web.</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>lyne.ofarell@sympatico.ca</t>
-        </is>
-      </c>
-      <c r="S42" t="inlineStr"/>
+          <t>cmareemootoo@kpmg.ca</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>www.kpmg.ca/foundation</t>
+        </is>
+      </c>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr">
         <is>
-          <t>514-527-4917</t>
+          <t>416-777-8096</t>
         </is>
       </c>
       <c r="W42" t="inlineStr"/>
@@ -4502,11 +4570,11 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>701</t>
+          <t>710</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -4516,102 +4584,66 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>KPMG Foundation,</t>
+          <t>Fondation L’Oréal Canada</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>393 University Ave, Suite 1100 Toronto ON M5G2N9</t>
+          <t>1500, Boul. Robert-Bourassa, bur. 600 Montréal QC  H3A3S8</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>B</t>
+          <t xml:space="preserve">F  </t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fondation corporative </t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mr Covy C. Maree Mootoo, Manager / Partner  Accounts </t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>416-777-3144</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>500 à 50 000 $</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>1 378 900 $</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>9 700 $</t>
-        </is>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>En tout temps</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>31 décembre</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Fondation corporative </t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Arts et culture. Éducation. Enfance et jeunesse. Institutions d'enseignement (post-secondaire). Santé (soins). Services communautaires. Universités (canadiennes).</t>
+          <t xml:space="preserve"> Femmes touchées par la maladie, la précarité, l'isolement, à renouer avec l'estime de soi, à retrouver une féminité malmenée, à se battre pour continuer leur vie. </t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Amélioration de la qualité de vie (en soins de santé pour les enfants et les jeunes en milieu communautaire et artistique). Dons jumelés (avec les employés pour les institutions post-secondaires).</t>
-        </is>
-      </c>
-      <c r="Q43" t="inlineStr">
-        <is>
-          <t>Communiquer par : courrier, courriel ou fax. Limites géographiques : le Canada. Voir le site web.</t>
-        </is>
-      </c>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>cmareemootoo@kpmg.ca</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Par son programme de formation aux métiers de la beauté « Pour les femmes et la Science », la Fondation L’Oréal suscite les vocations des étudiantes dès le lycée, encourage les chercheuses et récompense l’excellence dans le domaine de la beauté des femmes. </t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
       <c r="S43" t="inlineStr">
         <is>
-          <t>www.kpmg.ca/foundation</t>
+          <t>https://www.loreal.ca/fr-ca/foundationlanding/foundation-canada</t>
         </is>
       </c>
       <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr"/>
-      <c r="V43" t="inlineStr">
-        <is>
-          <t>416-777-8096</t>
-        </is>
-      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> internationales. </t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr"/>
       <c r="W43" t="inlineStr"/>
       <c r="X43" t="inlineStr"/>
       <c r="Y43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>710</t>
+          <t>717</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -4621,66 +4653,102 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Fondation L’Oréal Canada</t>
+          <t xml:space="preserve">Hudson's Bay Company Employees Charitable Fund </t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>1500, Boul. Robert-Bourassa, bur. 600 Montréal QC  H3A3S8</t>
+          <t>c/o Hudson's Bay Co. 401 Bay Street, Suite 1102 Toronto ON M5H2Y4</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t xml:space="preserve">F  </t>
+          <t>A</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fondation corporative </t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr"/>
+          <t xml:space="preserve"> Fonds d’employés </t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mrs Karina Dewi, Administrator </t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>416-861-4185</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>200 $</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>200 $</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>60 $</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>En tout temps</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>31 décembre</t>
+        </is>
+      </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Femmes touchées par la maladie, la précarité, l'isolement, à renouer avec l'estime de soi, à retrouver une féminité malmenée, à se battre pour continuer leur vie. </t>
+          <t>Causes charitables en général. Centraide.</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Par son programme de formation aux métiers de la beauté « Pour les femmes et la Science », la Fondation L’Oréal suscite les vocations des étudiantes dès le lycée, encourage les chercheuses et récompense l’excellence dans le domaine de la beauté des femmes. </t>
-        </is>
-      </c>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
+          <t>Dons jumelés (avec les employés).</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>Communiquer par : courrier seulement. Limites géographiques: le Canada. Voir le site web.</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>karina.dewi@hbc.com</t>
+        </is>
+      </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>https://www.loreal.ca/fr-ca/foundationlanding/foundation-canada</t>
+          <t>www.hbc.com</t>
         </is>
       </c>
       <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> internationales. </t>
-        </is>
-      </c>
-      <c r="V44" t="inlineStr"/>
+      <c r="U44" t="inlineStr"/>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>416-861-6248</t>
+        </is>
+      </c>
       <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>717</t>
+          <t>718</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -4690,102 +4758,66 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hudson's Bay Company Employees Charitable Fund </t>
+          <t>Fondation La Capitale</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>c/o Hudson's Bay Co. 401 Bay Street, Suite 1102 Toronto ON M5H2Y4</t>
+          <t>625, rue Jacques-Parizeau, C.P. 16 040 Québec QC  G1R2G5</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>A</t>
+          <t xml:space="preserve">F  </t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fonds d’employés </t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mrs Karina Dewi, Administrator </t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>416-861-4185</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>200 $</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>200 $</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>60 $</t>
-        </is>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>En tout temps</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>31 décembre</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Fondation corporative </t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Causes charitables en général. Centraide.</t>
+          <t xml:space="preserve"> L’engagement auprès des personnes dans le besoin et une contribution concrète au mieux-être de la communauté.  </t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Dons jumelés (avec les employés).</t>
-        </is>
-      </c>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>Communiquer par : courrier seulement. Limites géographiques: le Canada. Voir le site web.</t>
-        </is>
-      </c>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>karina.dewi@hbc.com</t>
-        </is>
-      </c>
+          <t xml:space="preserve">La Fondation se concentrent principalement dans les trois créneaux suivants : les personnes vivant avec un trouble du spectre de l’autisme, les personnes ayant une déficience intellectuelle et les aînés vulné-rables. </t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr">
         <is>
-          <t>www.hbc.com</t>
+          <t>https://www.lacapitale.com/fr/a-propos/fondation</t>
         </is>
       </c>
       <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr"/>
-      <c r="V45" t="inlineStr">
-        <is>
-          <t>416-861-6248</t>
-        </is>
-      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>le Québec.</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr"/>
       <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>718</t>
+          <t>719</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -4795,66 +4827,102 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Fondation La Capitale</t>
+          <t xml:space="preserve">Fondation Scoute La Cordée </t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>625, rue Jacques-Parizeau, C.P. 16 040 Québec QC  G1R2G5</t>
+          <t>2159, rue Ste-Catherine Est Montréal QC H2K2H9</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t xml:space="preserve">F  </t>
+          <t>F</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fondation corporative </t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="inlineStr"/>
+          <t xml:space="preserve"> Fondation publique </t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Monsieur Michel Denis, Secrétaire </t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>514-524-1106</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>330 370 $</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>330 370 $</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>7 817 650 $</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>En tout temps</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>15 octobre</t>
+        </is>
+      </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> L’engagement auprès des personnes dans le besoin et une contribution concrète au mieux-être de la communauté.  </t>
+          <t>Éducation (promouvoir, développer et favoriser l'éducation de la jeunesse scoute du diocèse de Montréal).</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t xml:space="preserve">La Fondation se concentrent principalement dans les trois créneaux suivants : les personnes vivant avec un trouble du spectre de l’autisme, les personnes ayant une déficience intellectuelle et les aînés vulné-rables. </t>
-        </is>
-      </c>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
+          <t>Bourses aux particuliers (bourse Aurèle Daoust aux Scouts et Guides de Montréal). Dons différés et planifiés (aux scouts et guides de Montréal).</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>Administre ses propres programmes. Communiquer par : courrier, courriel ou fax. Limites géographiques : Montréal. Voir le site web.</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>fondation@lacordee.com</t>
+        </is>
+      </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>https://www.lacapitale.com/fr/a-propos/fondation</t>
+          <t>www.lacordee.com</t>
         </is>
       </c>
       <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr">
-        <is>
-          <t>le Québec.</t>
-        </is>
-      </c>
-      <c r="V46" t="inlineStr"/>
+      <c r="U46" t="inlineStr"/>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>514-524-5081</t>
+        </is>
+      </c>
       <c r="W46" t="inlineStr"/>
       <c r="X46" t="inlineStr"/>
       <c r="Y46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>719</t>
+          <t>754</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -4864,12 +4932,12 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fondation Scoute La Cordée </t>
+          <t>Cimon Lebel,</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2159, rue Ste-Catherine Est Montréal QC H2K2H9</t>
+          <t>54, rue Amyot Rivière-du-Loup QC G5R3E9</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -4879,32 +4947,28 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fondation publique </t>
+          <t xml:space="preserve"> Fondation privée </t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Monsieur Michel Denis, Secrétaire </t>
+          <t xml:space="preserve">Madame Myriam Andrée Lebel, Présidente </t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>514-524-1106</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>330 370 $</t>
-        </is>
-      </c>
+          <t>418-867-1695</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
-          <t>330 370 $</t>
+          <t>5 720 $</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>7 817 650 $</t>
+          <t>467 660 $</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
@@ -4914,39 +4978,31 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>15 octobre</t>
+          <t>31 décembre</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Éducation (promouvoir, développer et favoriser l'éducation de la jeunesse scoute du diocèse de Montréal).</t>
+          <t>Causes humanitaires (Soutien aux personnes atteintes du cancer et leur famille; transport, hébergement, repas; assure en tout ou en partie les déplacements pour les soins médicaux reliés au cancer et pour la personne accompagnatrice). Malades chroniques (du cancer). Santé (traitement pour le cancer).</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Bourses aux particuliers (bourse Aurèle Daoust aux Scouts et Guides de Montréal). Dons différés et planifiés (aux scouts et guides de Montréal).</t>
+          <t>Activité bénéfice annuelle (Tournois, événements sportifs). Campagne de financement (Tournoi de golf, souper théâtre et tirage).</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>Administre ses propres programmes. Communiquer par : courrier, courriel ou fax. Limites géographiques : Montréal. Voir le site web.</t>
-        </is>
-      </c>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t>fondation@lacordee.com</t>
-        </is>
-      </c>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>www.lacordee.com</t>
-        </is>
-      </c>
+          <t>Communiquer par : courrier ou fax. Limites géographiques : Bas St-Laurent, Gaspésie-Les-Ïles, Côte-Nord et le Nord-Ouest du Nouveau-Brunswick.</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr">
         <is>
-          <t>514-524-5081</t>
+          <t>418-862-5054</t>
         </is>
       </c>
       <c r="W47" t="inlineStr"/>
@@ -4955,11 +5011,11 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>754</t>
+          <t>789</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -4969,90 +5025,82 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Cimon Lebel,</t>
+          <t>Fondation Raymond James Canada</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>54, rue Amyot Rivière-du-Loup QC G5R3E9</t>
+          <t>2100 – 925 West Georgia Street Vancouver, BC V6C3L2</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Fondation privée </t>
-        </is>
-      </c>
+          <t xml:space="preserve">B  </t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Madame Myriam Andrée Lebel, Présidente </t>
+          <t xml:space="preserve">Mr. Paul Allison, Director &amp; Chairman </t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>418-867-1695</t>
+          <t>604-659-8259</t>
         </is>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
-          <t>5 720 $</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>467 660 $</t>
-        </is>
-      </c>
+          <t>3 003 590 $</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
           <t>En tout temps</t>
         </is>
       </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>31 décembre</t>
-        </is>
-      </c>
+      <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Causes humanitaires (Soutien aux personnes atteintes du cancer et leur famille; transport, hébergement, repas; assure en tout ou en partie les déplacements pour les soins médicaux reliés au cancer et pour la personne accompagnatrice). Malades chroniques (du cancer). Santé (traitement pour le cancer).</t>
+          <t xml:space="preserve">Enfance et jeunesse. Promotion et protection de la santé, y compris des services de premiers soins et d'information. Fonds de secours. Secours aux sinistrés. </t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Activité bénéfice annuelle (Tournois, événements sportifs). Campagne de financement (Tournoi de golf, souper théâtre et tirage).</t>
-        </is>
-      </c>
-      <c r="Q48" t="inlineStr">
-        <is>
-          <t>Communiquer par : courrier ou fax. Limites géographiques : Bas St-Laurent, Gaspésie-Les-Ïles, Côte-Nord et le Nord-Ouest du Nouveau-Brunswick.</t>
-        </is>
-      </c>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="inlineStr"/>
+          <t xml:space="preserve">Banques alimentaires ou vestimentaires, soupes popu-laires, auberges. Bénévolat par le personnel. Hébergement ou autres services à l'enfance et à la jeunesse.  </t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>RJCFoundation@raymondjames.ca</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>https://rjcfoundation.ca/fr</t>
+        </is>
+      </c>
       <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr"/>
-      <c r="V48" t="inlineStr">
-        <is>
-          <t>418-862-5054</t>
-        </is>
-      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> le Canada.</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr"/>
       <c r="W48" t="inlineStr"/>
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>789</t>
+          <t>790</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -5062,34 +5110,42 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Fondation Raymond James Canada</t>
+          <t xml:space="preserve">Mackenzie Financial Charitable Foundation </t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2100 – 925 West Georgia Street Vancouver, BC V6C3L2</t>
+          <t>180 Queen St. W., Suite 1600 Toronto ON M5V3K1</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t xml:space="preserve">B  </t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr"/>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fondation publique </t>
+        </is>
+      </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mr. Paul Allison, Director &amp; Chairman </t>
+          <t xml:space="preserve">Mr Bradley Offman, Director &amp; President </t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>604-659-8259</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr"/>
+          <t>800-387-0614</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>5 000 à 100 000 $</t>
+        </is>
+      </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>3 003 590 $</t>
+          <t>825 500 $</t>
         </is>
       </c>
       <c r="L49" t="inlineStr"/>
@@ -5098,46 +5154,54 @@
           <t>En tout temps</t>
         </is>
       </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>31 décembre</t>
+        </is>
+      </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enfance et jeunesse. Promotion et protection de la santé, y compris des services de premiers soins et d'information. Fonds de secours. Secours aux sinistrés. </t>
+          <t>Causes charitables en général (enfance et jeunesse à risque). Centraide. Éducation. Enfance et jeunesse (hébergement ou autres services). Pauvreté. Santé (enfants, jeunes et adultes malades, services et besoins). Santé mentale (organismes de santé spécialisés). Services sociaux.</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Banques alimentaires ou vestimentaires, soupes popu-laires, auberges. Bénévolat par le personnel. Hébergement ou autres services à l'enfance et à la jeunesse.  </t>
-        </is>
-      </c>
-      <c r="Q49" t="inlineStr"/>
+          <t>Amélioration de la qualité de vie (démunis). Programmes de recrutement et de formation de bénévoles.</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>Communiquer par : courrier, courriel ou fax. Limites géographiques : le Canada. Voir le site web.</t>
+        </is>
+      </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>RJCFoundation@raymondjames.ca</t>
+          <t>service@mackenzieinvestments.com</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>https://rjcfoundation.ca/fr</t>
+          <t>https://www.mackenzieinvestments.com/en/about/ charitable-foundation/who-we-are</t>
         </is>
       </c>
       <c r="T49" t="inlineStr"/>
-      <c r="U49" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> le Canada.</t>
-        </is>
-      </c>
-      <c r="V49" t="inlineStr"/>
+      <c r="U49" t="inlineStr"/>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>866-766-6623</t>
+        </is>
+      </c>
       <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>790</t>
+          <t>827</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -5147,12 +5211,12 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mackenzie Financial Charitable Foundation </t>
+          <t>McCain Foundation,</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>180 Queen St. W., Suite 1600 Toronto ON M5V3K1</t>
+          <t>8800 Main Street Florenceville-Bristol NB E7L1B2</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -5162,33 +5226,37 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fondation publique </t>
+          <t xml:space="preserve"> Fondation privée </t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mr Bradley Offman, Director &amp; President </t>
+          <t xml:space="preserve">Mrs Ann H. McCain-Evans, Chairperson </t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>800-387-0614</t>
+          <t>506-392-3114</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>5 000 à 100 000 $</t>
+          <t>100 à 250 000 $</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>825 500 $</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr"/>
+          <t>1 518 500 $</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>34 554 500 $</t>
+        </is>
+      </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>En tout temps</t>
+          <t>1er mars</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -5198,34 +5266,26 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Causes charitables en général (enfance et jeunesse à risque). Centraide. Éducation. Enfance et jeunesse (hébergement ou autres services). Pauvreté. Santé (enfants, jeunes et adultes malades, services et besoins). Santé mentale (organismes de santé spécialisés). Services sociaux.</t>
+          <t>Agriculture. Arts et culture (pour enfants). Arts visuels (sculpture, peinture, gravure). Collèges communautaires. Éducation (préscolaire aux adultes, en arts et école des arts, Universités et collèges, Bourses d'études, bourses d'entretien, etc). Enfants (développement et bien-être; installations récréatives communautaires, etc). Environnement. Hôpitaux. Musées / Centre d’interprétation. Organismes religieux. Recherche (en éducation et médecine). Santé. Sciences et sciences sociales. Services sociaux. Sports et loisirs. Universités (canadiennes).</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>Amélioration de la qualité de vie (démunis). Programmes de recrutement et de formation de bénévoles.</t>
+          <t>Bourses d'études (écoles académiques). Fonds de construction / de capitalisation. Fonds pour programmes et services. Organismes (communautaires). Prix. Projets de recherches. Projets spéciaux. Technologie informatique.</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>Communiquer par : courrier, courriel ou fax. Limites géographiques : le Canada. Voir le site web.</t>
-        </is>
-      </c>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>service@mackenzieinvestments.com</t>
-        </is>
-      </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>https://www.mackenzieinvestments.com/en/about/ charitable-foundation/who-we-are</t>
-        </is>
-      </c>
+          <t>Communiquer par : courrier ou fax. Formulaire disponible sur demande (pour les programmes universitaires). Limites géographiques : le Canada.</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr">
         <is>
-          <t>866-766-6623</t>
+          <t>506-392-0816</t>
         </is>
       </c>
       <c r="W50" t="inlineStr"/>
@@ -5234,11 +5294,11 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>827</t>
+          <t>829</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -5248,17 +5308,17 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>McCain Foundation,</t>
+          <t xml:space="preserve">McCarthy Tétrault Foundation </t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>8800 Main Street Florenceville-Bristol NB E7L1B2</t>
+          <t>Toronto Dominion Bank Tower, Suite 5300 P.O. Box 48 Toronto ON M5K1E6</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -5268,32 +5328,32 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mrs Ann H. McCain-Evans, Chairperson </t>
+          <t xml:space="preserve">Mr Nigel Johnston, Director-Treasurer </t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>506-392-3114</t>
+          <t>416-362-1812</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>100 à 250 000 $</t>
+          <t>170 à 398 000 $</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>1 518 500 $</t>
+          <t>994 700 $</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>34 554 500 $</t>
+          <t>1 169 000 $</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>1er mars</t>
+          <t>En tout temps</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -5303,17 +5363,17 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Agriculture. Arts et culture (pour enfants). Arts visuels (sculpture, peinture, gravure). Collèges communautaires. Éducation (préscolaire aux adultes, en arts et école des arts, Universités et collèges, Bourses d'études, bourses d'entretien, etc). Enfants (développement et bien-être; installations récréatives communautaires, etc). Environnement. Hôpitaux. Musées / Centre d’interprétation. Organismes religieux. Recherche (en éducation et médecine). Santé. Sciences et sciences sociales. Services sociaux. Sports et loisirs. Universités (canadiennes).</t>
+          <t>Causes charitables en général (organismes de charité et culturels enregistrés). Centraide. Éducation (écoles, Universités et collèges). Femmes et causes féminines. Hôpitaux. Santé. Services sociaux (Agences, aide et services). Universités (Faculté de droit).</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>Bourses d'études (écoles académiques). Fonds de construction / de capitalisation. Fonds pour programmes et services. Organismes (communautaires). Prix. Projets de recherches. Projets spéciaux. Technologie informatique.</t>
+          <t>Fondations hospitalières.</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>Communiquer par : courrier ou fax. Formulaire disponible sur demande (pour les programmes universitaires). Limites géographiques : le Canada.</t>
+          <t>Communiquer par : courrier ou fax. Limites géographiques : le Canada.</t>
         </is>
       </c>
       <c r="R51" t="inlineStr"/>
@@ -5322,7 +5382,7 @@
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr">
         <is>
-          <t>506-392-0816</t>
+          <t>416-868-0673</t>
         </is>
       </c>
       <c r="W51" t="inlineStr"/>
@@ -5331,11 +5391,11 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>829</t>
+          <t>831</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -5345,12 +5405,12 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t xml:space="preserve">McCarthy Tétrault Foundation </t>
+          <t>McKesson,</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Toronto Dominion Bank Tower, Suite 5300 P.O. Box 48 Toronto ON M5K1E6</t>
+          <t>8625, rte Transcanadienne Saint-Laurent QC H4S1Z6</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -5360,66 +5420,62 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fondation privée </t>
+          <t xml:space="preserve"> Fondation corporative </t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mr Nigel Johnston, Director-Treasurer </t>
+          <t xml:space="preserve">Madame Danièle Dufour, Directrice des  communications corp. </t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>416-362-1812</t>
+          <t>514-745-2100</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>170 à 398 000 $</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>994 700 $</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>1 169 000 $</t>
-        </is>
-      </c>
+          <t>6 000 à 25 000 $</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
           <t>En tout temps</t>
         </is>
       </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>31 décembre</t>
-        </is>
-      </c>
+      <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Causes charitables en général (organismes de charité et culturels enregistrés). Centraide. Éducation (écoles, Universités et collèges). Femmes et causes féminines. Hôpitaux. Santé. Services sociaux (Agences, aide et services). Universités (Faculté de droit).</t>
+          <t>Causes charitables en général (organismes enregistrés et les OBNL ayant pour objectifs la santé des enfants et des jeunes). Centraide. Éducation (enfants et jeunes et études supérieures). Santé (enfants et jeunes). Santé mentale (enfants). Services sociaux.</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Fondations hospitalières.</t>
+          <t>Bourses aux particuliers (50 bourses de 1 000 $ à des étudiants employés dans une pharmacie et inscrits dans une Faculté de pharmacie accréditée). Dons jumelés (avec les employés). Fondations hospitalières. Programmes de recrutement et de formation de bénévoles (les employés impliqués dans un OBNL peuvent obtenir 1 Angel Point par heure de bénévolat et à chaque 50hres il a droit à 250 $ pour l'OBNL de son choix jusqu'à un maximum de 1 000 $ par année).</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>Communiquer par : courrier ou fax. Limites géographiques : le Canada.</t>
-        </is>
-      </c>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="inlineStr"/>
+          <t>Administre ses propres programmes (dans les régions où vivent et travaillent les employés). Communiquer par : courrier, courriel ou fax. Formulaire disponible sur le site web. Limites géographiques : le Canada et USA. Voir le site web.</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>communications@mckesson.ca</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>www.mckesson.ca/fr/communautaire/fondation. aspx</t>
+        </is>
+      </c>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr">
         <is>
-          <t>416-868-0673</t>
+          <t>514-745-2300</t>
         </is>
       </c>
       <c r="W52" t="inlineStr"/>
@@ -5428,11 +5484,11 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>831</t>
+          <t>841</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -5442,77 +5498,73 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>McKesson,</t>
+          <t>St-Hubert,</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>8625, rte Transcanadienne Saint-Laurent QC H4S1Z6</t>
+          <t>2500, boul. Daniel-Johnson, 7 étage Laval QC H7T2P6</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>F</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fondation corporative </t>
+          <t xml:space="preserve"> Fondation publique </t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Madame Danièle Dufour, Directrice des  communications corp. </t>
+          <t xml:space="preserve">Madame Diane Bouchard, Trésorière </t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>514-745-2100</t>
+          <t>450-688-6500</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>6 000 à 25 000 $</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>En tout temps</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr"/>
+          <t>250 à 200 000 $</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>664 000 $</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>1 290 700 $</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>30 septembre</t>
+        </is>
+      </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Causes charitables en général (organismes enregistrés et les OBNL ayant pour objectifs la santé des enfants et des jeunes). Centraide. Éducation (enfants et jeunes et études supérieures). Santé (enfants et jeunes). Santé mentale (enfants). Services sociaux.</t>
+          <t>Causes charitables en général. Centraide. Éducation. Enfance et jeunesse. Famille (counselling, etc). Handicapés physiques et intellectuels. Hôpitaux. Maladies (Alzheimer, Fibrose Kystique, cancer et autres). Pauvreté. Santé.</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Bourses aux particuliers (50 bourses de 1 000 $ à des étudiants employés dans une pharmacie et inscrits dans une Faculté de pharmacie accréditée). Dons jumelés (avec les employés). Fondations hospitalières. Programmes de recrutement et de formation de bénévoles (les employés impliqués dans un OBNL peuvent obtenir 1 Angel Point par heure de bénévolat et à chaque 50hres il a droit à 250 $ pour l'OBNL de son choix jusqu'à un maximum de 1 000 $ par année).</t>
-        </is>
-      </c>
-      <c r="Q53" t="inlineStr">
-        <is>
-          <t>Administre ses propres programmes (dans les régions où vivent et travaillent les employés). Communiquer par : courrier, courriel ou fax. Formulaire disponible sur le site web. Limites géographiques : le Canada et USA. Voir le site web.</t>
-        </is>
-      </c>
-      <c r="R53" t="inlineStr">
-        <is>
-          <t>communications@mckesson.ca</t>
-        </is>
-      </c>
-      <c r="S53" t="inlineStr">
-        <is>
-          <t>www.mckesson.ca/fr/communautaire/fondation. aspx</t>
-        </is>
-      </c>
+          <t>Activité bénéfice annuelle (ventes aux enchères, boîtes de collecte, programmes de dons planifiés, dons de sociétés et commandites ciblés, tournois, événements sportifs).</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr">
         <is>
-          <t>514-745-2300</t>
+          <t>450-688-3900</t>
         </is>
       </c>
       <c r="W53" t="inlineStr"/>
@@ -5521,11 +5573,11 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>841</t>
+          <t>847</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -5535,73 +5587,85 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>St-Hubert,</t>
+          <t>Merck Frosst Canada</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2500, boul. Daniel-Johnson, 7 étage Laval QC H7T2P6</t>
+          <t>16 750, rte Transcanadienne Kirkland QC H9H4M7</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fondation publique </t>
+          <t xml:space="preserve"> Fonds d’employés </t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Madame Diane Bouchard, Trésorière </t>
+          <t xml:space="preserve">Madame Joanna Ginocchi-Foster, Présidente </t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>450-688-6500</t>
+          <t>514-428-3601</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>250 à 200 000 $</t>
+          <t>250 à 2 500 $</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>664 000 $</t>
+          <t>33 500 $</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>1 290 700 $</t>
-        </is>
-      </c>
-      <c r="M54" t="inlineStr"/>
+          <t>13 800 $</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>En tout temps</t>
+        </is>
+      </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>30 septembre</t>
+          <t>31 décembre</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Causes charitables en général. Centraide. Éducation. Enfance et jeunesse. Famille (counselling, etc). Handicapés physiques et intellectuels. Hôpitaux. Maladies (Alzheimer, Fibrose Kystique, cancer et autres). Pauvreté. Santé.</t>
+          <t>Causes charitables en général. Éducation. Enfants (développement et bien-être). Handicapés physiques et intellectuels (services). Hôpitaux. Recherche (sur les maladies des enfants et cancer du sein). Santé. Santé mentale (organismes de santé spécialisés). Services sociaux. Soins palliatifs.</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Activité bénéfice annuelle (ventes aux enchères, boîtes de collecte, programmes de dons planifiés, dons de sociétés et commandites ciblés, tournois, événements sportifs).</t>
-        </is>
-      </c>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
+          <t>Fondations hospitalières. Recherches scientifiques. Santé.</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>Communiquer par : courrier ou fax. Favorise les organismes communautaires. Limites géographiques : le Québec.</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>joanna.foster@merck.com</t>
+        </is>
+      </c>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr">
         <is>
-          <t>450-688-3900</t>
+          <t>514-428-8675</t>
         </is>
       </c>
       <c r="W54" t="inlineStr"/>
@@ -5610,11 +5674,11 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>847</t>
+          <t>860</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -5624,98 +5688,74 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Merck Frosst Canada</t>
+          <t>Fondation d’Entreprise Michelin</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>16 750, rte Transcanadienne Kirkland QC H9H4M7</t>
+          <t>a/s 2500, boul. Daniel-Johnson, bur. 500 Laval QC  H7P2T6</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Fonds d’employés </t>
-        </is>
-      </c>
+          <t xml:space="preserve">F  </t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Madame Joanna Ginocchi-Foster, Présidente </t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>514-428-3601</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>250 à 2 500 $</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>33 500 $</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>13 800 $</t>
-        </is>
-      </c>
+          <t xml:space="preserve">M. Florent Menegaux, Président, Fondation d’Entreprise Michelin </t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
           <t>En tout temps</t>
         </is>
       </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>31 décembre</t>
-        </is>
-      </c>
+      <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Causes charitables en général. Éducation. Enfants (développement et bien-être). Handicapés physiques et intellectuels (services). Hôpitaux. Recherche (sur les maladies des enfants et cancer du sein). Santé. Santé mentale (organismes de santé spécialisés). Services sociaux. Soins palliatifs.</t>
+          <t xml:space="preserve">Mobilité durable, sports et santé, éducation et solidarité, culture et pratimoine et protection de l’environnement.. </t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Fondations hospitalières. Recherches scientifiques. Santé.</t>
-        </is>
-      </c>
-      <c r="Q55" t="inlineStr">
-        <is>
-          <t>Communiquer par : courrier ou fax. Favorise les organismes communautaires. Limites géographiques : le Québec.</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Soutient des projets novateurs et engagés dans la vie de la « Cité », cohérents avec les activités du Groupe et proches de ses collabora-teurs et de ses sites.  </t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr">
         <is>
-          <t>joanna.foster@merck.com</t>
-        </is>
-      </c>
-      <c r="S55" t="inlineStr"/>
+          <t>fondation@michelin.com</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>https://fondation.michelin.com/</t>
+        </is>
+      </c>
       <c r="T55" t="inlineStr"/>
-      <c r="U55" t="inlineStr"/>
-      <c r="V55" t="inlineStr">
-        <is>
-          <t>514-428-8675</t>
-        </is>
-      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> où Michelin développe ses activités.</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr"/>
       <c r="W55" t="inlineStr"/>
       <c r="X55" t="inlineStr"/>
       <c r="Y55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>860</t>
+          <t>866</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -5725,74 +5765,94 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Fondation d’Entreprise Michelin</t>
+          <t>Mitsui Canada Foundation,</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>a/s 2500, boul. Daniel-Johnson, bur. 500 Laval QC  H7P2T6</t>
+          <t>c/o Mitsui &amp; Co. (Canada) 66 Wellington Street West, Suite 3510 Toronto ON M5C2T6</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t xml:space="preserve">F  </t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr"/>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fondation corporative </t>
+        </is>
+      </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t xml:space="preserve">M. Florent Menegaux, Président, Fondation d’Entreprise Michelin </t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+          <t xml:space="preserve">Mr Tetsuo Komuro, Administrator </t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>416-947-3828</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>3 000 à 24 700 $</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>82 100 $</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>1 713 200 $</t>
+        </is>
+      </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>En tout temps</t>
-        </is>
-      </c>
-      <c r="N56" t="inlineStr"/>
+          <t>31 mars</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>31 décembre</t>
+        </is>
+      </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mobilité durable, sports et santé, éducation et solidarité, culture et pratimoine et protection de l’environnement.. </t>
+          <t>Arts et culture (japonais, programmes culturels). Centraide. Culture et traditions (japonaises). Échanges académiques avec (Japon et le Canada). Éducation (canado-japonnaise). Environnement. Héritage culturel (histoire). Musées / Centre d’interprétation. Orchestres. Universités.</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Soutient des projets novateurs et engagés dans la vie de la « Cité », cohérents avec les activités du Groupe et proches de ses collabora-teurs et de ses sites.  </t>
-        </is>
-      </c>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr">
-        <is>
-          <t>fondation@michelin.com</t>
-        </is>
-      </c>
-      <c r="S56" t="inlineStr">
-        <is>
-          <t>https://fondation.michelin.com/</t>
-        </is>
-      </c>
+          <t>Bourses aux particuliers. Échanges culturels (avec le Japon : subventions de voyage pour groupes, concours oratoire japonais à Toronto, écoles japonaises du Canada). Écoles (favorise le jumelage des écoles canadiennes et japonaises). Projets spéciaux.</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>Administre ses propres programmes. Communiquer par : courrier ou fax. Limites géographiques : le Canada. Soumettre d'abord un résumé du projet.</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr"/>
+      <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
-      <c r="U56" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> où Michelin développe ses activités.</t>
-        </is>
-      </c>
-      <c r="V56" t="inlineStr"/>
+      <c r="U56" t="inlineStr"/>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>416-865-1486</t>
+        </is>
+      </c>
       <c r="W56" t="inlineStr"/>
       <c r="X56" t="inlineStr"/>
       <c r="Y56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>866</t>
+          <t>867</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -5802,12 +5862,12 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Mitsui Canada Foundation,</t>
+          <t>Molson,</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>c/o Mitsui &amp; Co. (Canada) 66 Wellington Street West, Suite 3510 Toronto ON M5C2T6</t>
+          <t>1555, rue Notre-Dame Est Montréal QC H2L2R5</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -5817,57 +5877,57 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fondation corporative </t>
+          <t xml:space="preserve"> Fondation privée </t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mr Tetsuo Komuro, Administrator </t>
+          <t xml:space="preserve">M. Dominique Paliotti, Trésorier </t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>416-947-3828</t>
+          <t>514-590-6335</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>3 000 à 24 700 $</t>
+          <t>20 000 à 2 000 000 $</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>82 100 $</t>
+          <t>5 535 000 $</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>1 713 200 $</t>
+          <t>266 068 800 $</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>31 mars</t>
+          <t>En tout temps</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>31 décembre</t>
+          <t>30 septembre</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Arts et culture (japonais, programmes culturels). Centraide. Culture et traditions (japonaises). Échanges académiques avec (Japon et le Canada). Éducation (canado-japonnaise). Environnement. Héritage culturel (histoire). Musées / Centre d’interprétation. Orchestres. Universités.</t>
+          <t>Arts et culture (Musées, galeries d'art, salles de concert). Causes charitables en général (organismes canadiens enregistrés). Causes humanitaires. Développement social. Éducation (universités et collèges). Environnement. Hôpitaux. Institutions d'enseignement. Musées / Centre d’interprétation. Orchestres (Orchestre Symphonique de Montréal). Organismes religieux. Recherche (médicale). Santé. Sciences et sciences sociales. Services sociaux. Sports et loisirs. Universités.</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>Bourses aux particuliers. Échanges culturels (avec le Japon : subventions de voyage pour groupes, concours oratoire japonais à Toronto, écoles japonaises du Canada). Écoles (favorise le jumelage des écoles canadiennes et japonaises). Projets spéciaux.</t>
+          <t>Fondations Cegeps (Collèges). Fondations hospitalières. Fonds de construction / de capitalisation. Fonds de dotation. Fonds d'équipement. Projets spéciaux.</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>Administre ses propres programmes. Communiquer par : courrier ou fax. Limites géographiques : le Canada. Soumettre d'abord un résumé du projet.</t>
+          <t>Communiquer par : courrier ou fax. Formulaire disponible sur demande. Joindre la liste des membres du c.a. Joindre le numéro d’enregistrement de charité. Joindre vos états financiers vérifiés et le rapport annuel. Limites géographiques : le Canada. Soumettre d'abord un résumé du projet.</t>
         </is>
       </c>
       <c r="R57" t="inlineStr"/>
@@ -5876,7 +5936,7 @@
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr">
         <is>
-          <t>416-865-1486</t>
+          <t>514-599-5396</t>
         </is>
       </c>
       <c r="W57" t="inlineStr"/>
@@ -5885,11 +5945,11 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>867</t>
+          <t>873</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -5899,81 +5959,81 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Molson,</t>
+          <t>24h Tremblant,</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>1555, rue Notre-Dame Est Montréal QC H2L2R5</t>
+          <t>1000, ch. des Voyageurs Mont-Tremblant QC J8E1T1</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>F</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fondation privée </t>
+          <t xml:space="preserve">Fondation publique </t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t xml:space="preserve">M. Dominique Paliotti, Trésorier </t>
+          <t xml:space="preserve">Madame Noémie Biardeau, Secrétariat </t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>514-590-6335</t>
+          <t>819-681-5995</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>20 000 à 2 000 000 $</t>
+          <t>16 500 à 840 000 $</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>5 535 000 $</t>
+          <t>1 634 000 $</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>266 068 800 $</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>En tout temps</t>
-        </is>
-      </c>
+          <t>894 500 $</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
-          <t>30 septembre</t>
+          <t>30 juin</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Arts et culture (Musées, galeries d'art, salles de concert). Causes charitables en général (organismes canadiens enregistrés). Causes humanitaires. Développement social. Éducation (universités et collèges). Environnement. Hôpitaux. Institutions d'enseignement. Musées / Centre d’interprétation. Orchestres (Orchestre Symphonique de Montréal). Organismes religieux. Recherche (médicale). Santé. Sciences et sciences sociales. Services sociaux. Sports et loisirs. Universités.</t>
+          <t>Enfants (développement et bien-être; améliorer la qualité de vie des enfants de la région du Mont-Tremblant). Services communautaires (aider les enfants à se développer sur le plan sportif, culturel et aritistique).</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>Fondations Cegeps (Collèges). Fondations hospitalières. Fonds de construction / de capitalisation. Fonds de dotation. Fonds d'équipement. Projets spéciaux.</t>
-        </is>
-      </c>
-      <c r="Q58" t="inlineStr">
-        <is>
-          <t>Communiquer par : courrier ou fax. Formulaire disponible sur demande. Joindre la liste des membres du c.a. Joindre le numéro d’enregistrement de charité. Joindre vos états financiers vérifiés et le rapport annuel. Limites géographiques : le Canada. Soumettre d'abord un résumé du projet.</t>
-        </is>
-      </c>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="inlineStr"/>
+          <t>Activité bénéfice annuelle (tournois, événements sportifs, dons de sociétés et commandites ciblés).</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>nbiardeau@intrawest.com</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>www.24htremblant.com</t>
+        </is>
+      </c>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr">
         <is>
-          <t>514-599-5396</t>
+          <t>819-681-3000</t>
         </is>
       </c>
       <c r="W58" t="inlineStr"/>
@@ -5982,11 +6042,11 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>873</t>
+          <t>900</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -5996,94 +6056,90 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>24h Tremblant,</t>
+          <t xml:space="preserve">Newman's Own Foundation </t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>1000, ch. des Voyageurs Mont-Tremblant QC J8E1T1</t>
+          <t>246 Post Road E. Westport CT 06880-3615 USA</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fondation publique </t>
+          <t xml:space="preserve"> Fondation corporative </t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Madame Noémie Biardeau, Secrétariat </t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>819-681-5995</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Ms Kathy Siever, Grants </t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr">
         <is>
-          <t>16 500 à 840 000 $</t>
+          <t>5 000 à 50 000 USD $</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>1 634 000 $</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>894 500 $</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr"/>
+          <t>26 000 000 USD $</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>En tout temps</t>
+        </is>
+      </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>30 juin</t>
+          <t>31 août</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Enfants (développement et bien-être; améliorer la qualité de vie des enfants de la région du Mont-Tremblant). Services communautaires (aider les enfants à se développer sur le plan sportif, culturel et aritistique).</t>
+          <t>Aînés. Arts et culture. Éducation. Enfance et jeunesse. Environnement. Handicapés physiques et intellectuels. Littérature. Pauvreté. Prévention du crime (et des abus). Santé. Services sociaux.</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>Activité bénéfice annuelle (tournois, événements sportifs, dons de sociétés et commandites ciblés).</t>
-        </is>
-      </c>
-      <c r="Q59" t="inlineStr"/>
+          <t>Camps de vacances (pour jeunes en difficultés médicales, sociales, etc). Éducation. Santé.</t>
+        </is>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>Communiquer par : courrier. Joindre la liste des membres du c.a. Joindre le numéro d’enregistrement de charité. Joindre vos états financiers vérifiés et le rapport annuel. Limites géographiques : le Canada et USA. Soumettre d'abord un résumé du projet. Voir le site web.</t>
+        </is>
+      </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>nbiardeau@intrawest.com</t>
+          <t>info@newmansownfoundation.org</t>
         </is>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>www.24htremblant.com</t>
+          <t>http://newmansownfoundation.org/about- us/contact-us/</t>
         </is>
       </c>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
-      <c r="V59" t="inlineStr">
-        <is>
-          <t>819-681-3000</t>
-        </is>
-      </c>
+      <c r="V59" t="inlineStr"/>
       <c r="W59" t="inlineStr"/>
       <c r="X59" t="inlineStr"/>
       <c r="Y59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>900</t>
+          <t>912</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -6093,74 +6149,50 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Newman's Own Foundation </t>
+          <t xml:space="preserve">Novartis International AG </t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>246 Post Road E. Westport CT 06880-3615 USA</t>
+          <t>Postfach 4002 Basel, Switzerland</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Fondation corporative </t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ms Kathy Siever, Grants </t>
-        </is>
-      </c>
+          <t xml:space="preserve">B  </t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>5 000 à 50 000 USD $</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>26 000 000 USD $</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
           <t>En tout temps</t>
         </is>
       </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>31 août</t>
-        </is>
-      </c>
+      <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Aînés. Arts et culture. Éducation. Enfance et jeunesse. Environnement. Handicapés physiques et intellectuels. Littérature. Pauvreté. Prévention du crime (et des abus). Santé. Services sociaux.</t>
+          <t xml:space="preserve">Élaboration de solutions holistiques pour la santé des communautés à bas revenus dans le monde. </t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>Camps de vacances (pour jeunes en difficultés médicales, sociales, etc). Éducation. Santé.</t>
-        </is>
-      </c>
-      <c r="Q60" t="inlineStr">
-        <is>
-          <t>Communiquer par : courrier. Joindre la liste des membres du c.a. Joindre le numéro d’enregistrement de charité. Joindre vos états financiers vérifiés et le rapport annuel. Limites géographiques : le Canada et USA. Soumettre d'abord un résumé du projet. Voir le site web.</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Grands programmes de santé mondiaux en engageant les communautés de pays en voie de développement avec des partenaires lo-caux et mondiaux. </t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr">
         <is>
-          <t>info@newmansownfoundation.org</t>
+          <t>novartis.foundation@novartis.com</t>
         </is>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>http://newmansownfoundation.org/about- us/contact-us/</t>
+          <t xml:space="preserve">https://www.novartisfoundation.org/about-us  </t>
         </is>
       </c>
       <c r="T60" t="inlineStr"/>
@@ -6172,11 +6204,11 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>912</t>
+          <t>1004</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -6186,62 +6218,90 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Novartis International AG </t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr"/>
+          <t xml:space="preserve">Panicaro Foundation </t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>c/o Pricewaterhouse Coopers 99 Bank Street, Suite 800 Ottawa ON K1P1K6</t>
+        </is>
+      </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t xml:space="preserve">B  </t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fondation privée </t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mr Robert W.M. Birks, President </t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>613-237-3702</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>1 500 à 65 000 $</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>200 850 $</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>5 533 400 $</t>
+        </is>
+      </c>
       <c r="M61" t="inlineStr">
         <is>
           <t>En tout temps</t>
         </is>
       </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>30 novembre</t>
+        </is>
+      </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Élaboration de solutions holistiques pour la santé des communautés à bas revenus dans le monde. </t>
-        </is>
-      </c>
-      <c r="P61" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Grands programmes de santé mondiaux en engageant les communautés de pays en voie de développement avec des partenaires lo-caux et mondiaux. </t>
-        </is>
-      </c>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr">
-        <is>
-          <t>novartis.foundation@novartis.com</t>
-        </is>
-      </c>
-      <c r="S61" t="inlineStr">
-        <is>
-          <t xml:space="preserve">https://www.novartisfoundation.org/about-us  </t>
-        </is>
-      </c>
+          <t xml:space="preserve">Arts et culture. Causes charitables en général (organismes enregistrés). Développement du leadership. Éducation (collèges et universités). Océanographie. Services sociaux. </t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>Communiquer par : courrier ou fax. Limites géographiques : le Canada.</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr"/>
+      <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr"/>
-      <c r="V61" t="inlineStr"/>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>613-237-3963</t>
+        </is>
+      </c>
       <c r="W61" t="inlineStr"/>
       <c r="X61" t="inlineStr"/>
       <c r="Y61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>1004</t>
+          <t>1020</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -6251,90 +6311,66 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Panicaro Foundation </t>
+          <t>Fondation Loblaw Companies Limited of Canada</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>c/o Pricewaterhouse Coopers 99 Bank Street, Suite 800 Ottawa ON K1P1K6</t>
+          <t>Foundation a/s 400, ave Ste-Croix Saint-Laurent QC  H4N3L4</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Fondation privée </t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mr Robert W.M. Birks, President </t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>613-237-3702</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>1 500 à 65 000 $</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>200 850 $</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>5 533 400 $</t>
-        </is>
-      </c>
+          <t xml:space="preserve">B  </t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
           <t>En tout temps</t>
         </is>
       </c>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>30 novembre</t>
-        </is>
-      </c>
+      <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Arts et culture. Causes charitables en général (organismes enregistrés). Développement du leadership. Éducation (collèges et universités). Océanographie. Services sociaux. </t>
-        </is>
-      </c>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr">
-        <is>
-          <t>Communiquer par : courrier ou fax. Limites géographiques : le Canada.</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Les companies Loblaw Ltd et George Weston Ltd offrent du financement de démarrage [seed money] pour la recherche interdiscipli-naire ainsi que le développement technologique pour accélérer les solutions aux défis de l’alimentation durable. </t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le « Loblaw Scholarship Fund » assiste des étudiants ca-nadiens dans les universités et collèges canadiens avec des bourses pour faire avancer l’éducation du public et des individus sur l’alimentation saine.  Les programmes « Feed Kids Good Food » pour alimenter leur journée et « Feed Kids Knowledge » du fonds PC Children’s Charity visent à aider les jeunes à faire les meilleurs choix pour leur santé et à devenir plus respon-sables quant à leur alimentation.  « PC Children’s Charity » est l’un des plus importants donateurs des programmes de nutrition d’écoles canadiennes avec des dons de 54 millions $ nourrissant 450 000 enfants annuellement.  Leur programme « Putting Women's Health First » a contribué 60 millions $ pour aider 200 000 femmes canadiennes depuis six ans. </t>
+        </is>
+      </c>
+      <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr"/>
-      <c r="S62" t="inlineStr"/>
-      <c r="T62" t="inlineStr"/>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://www.loblaw.ca/en/responsibility/community/scholarshipfund.html </t>
+        </is>
+      </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>https://www.loblaw.ca/en/responsibility/community/charitable-giving.html</t>
+        </is>
+      </c>
       <c r="U62" t="inlineStr"/>
-      <c r="V62" t="inlineStr">
-        <is>
-          <t>613-237-3963</t>
-        </is>
-      </c>
+      <c r="V62" t="inlineStr"/>
       <c r="W62" t="inlineStr"/>
       <c r="X62" t="inlineStr"/>
       <c r="Y62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1020</t>
+          <t>1043</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -6344,66 +6380,102 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Fondation Loblaw Companies Limited of Canada</t>
+          <t xml:space="preserve">RBC Foundation </t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>a/s 400, ave Ste-Croix Saint-Laurent QC  H4N3L4</t>
+          <t>155 Wellington Street West, 18th Floor Toronto ON M5V3K7</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t xml:space="preserve">B  </t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fondation corporative </t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mr Shari Austin, Director </t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>416-955-2646</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>4000 à 926 000 $</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>52 844 860 $</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>48 298 800 $</t>
+        </is>
+      </c>
       <c r="M63" t="inlineStr">
         <is>
           <t>En tout temps</t>
         </is>
       </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>31 octobre</t>
+        </is>
+      </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les companies Loblaw Ltd et George Weston Ltd offrent du financement de démarrage [seed money] pour la recherche interdiscipli-naire ainsi que le développement technologique pour accélérer les solutions aux défis de l’alimentation durable. </t>
+          <t>Aide aux sinistrés (désastres naturels). Aînés. Arts et culture. Causes charitables en général (organismes enregistrés). Centraide. Centres de plein air (et camps d'été); groupes de jeunes (guides, cadets, clubs des 4-H, etc). Développement communautaire (et économique). Éducation. Environnement. Handicapés physiques. Hôpitaux. Jeunesse. Organismes religieux. Premières nations. Protection des sols (et de l'agriculture et protection de l'environnement; services de recyclage). Protection et soins des animaux. Santé. Santé mentale. Sciences et sciences sociales. Services communautaires. Services sociaux. Sports et loisirs (amateurs). Universités.</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le « Loblaw Scholarship Fund » assiste des étudiants ca-nadiens dans les universités et collèges canadiens avec des bourses pour faire avancer l’éducation du public et des individus sur l’alimentation saine.  Les programmes « Feed Kids Good Food » pour alimenter leur journée et « Feed Kids Knowledge » du fonds PC Children’s Charity visent à aider les jeunes à faire les meilleurs choix pour leur santé et à devenir plus respon-sables quant à leur alimentation.  « PC Children’s Charity » est l’un des plus importants donateurs des programmes de nutrition d’écoles canadiennes avec des dons de 54 millions $ nourrissant 450 000 enfants annuellement.  Leur programme « Putting Women's Health First » a contribué 60 millions $ pour aider 200 000 femmes canadiennes depuis six ans. </t>
-        </is>
-      </c>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
+          <t>Bourses aux particuliers (5 bourses d'une valeur de 4 000 $ voir le site web pour détails). Dons jumelés (avec les employés). Fondations hospitalières. Fonds de dotation. Fonds pour programmes et services. Projets de recherches. Projets spéciaux.</t>
+        </is>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>Communiquer par : courrier seulement. Favorise les organismes communautaires. Joindre la liste des membres du c.a. (avec la liste des autres donateurs approchés y compris l'aide financière gouvernementale). Joindre vos états financiers vérifiés et le rapport annuel. Limites géographiques : le Canada. Liste de projets financés disponible. Rapport annuel disponible (sur le site web ou dans les succursales de RBC). Soumettre d'abord un résumé du projet. Voir le site web (pour dons et commandite).</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>donations@rbc.com</t>
+        </is>
+      </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.loblaw.ca/en/responsibility/community/scholarshipfund.html </t>
-        </is>
-      </c>
-      <c r="T63" t="inlineStr">
-        <is>
-          <t>https://www.loblaw.ca/en/responsibility/community/charitable-giving.html</t>
-        </is>
-      </c>
+          <t>www.rbc.com/community/donations</t>
+        </is>
+      </c>
+      <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr"/>
-      <c r="V63" t="inlineStr"/>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>416-974-0624</t>
+        </is>
+      </c>
       <c r="W63" t="inlineStr"/>
       <c r="X63" t="inlineStr"/>
       <c r="Y63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1043</t>
+          <t>1061</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -6413,12 +6485,12 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t xml:space="preserve">RBC Foundation </t>
+          <t xml:space="preserve">Boston Pizza Foundation </t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>155 Wellington Street West, 18th Floor Toronto ON M5V3K7</t>
+          <t>100-10 760 Shellbridge Way Richmond BC V6X3H1</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -6433,27 +6505,27 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mr Shari Austin, Director </t>
+          <t xml:space="preserve">Mr Walter Treveling, Director &amp; President </t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>416-955-2646</t>
+          <t>604-270-1108</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>4000 à 926 000 $</t>
+          <t>500 à 290 000 $</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>52 844 860 $</t>
+          <t>1 709 450 $</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>48 298 800 $</t>
+          <t>708 500 $</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
@@ -6463,39 +6535,39 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>31 octobre</t>
+          <t>31 décembre</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>Aide aux sinistrés (désastres naturels). Aînés. Arts et culture. Causes charitables en général (organismes enregistrés). Centraide. Centres de plein air (et camps d'été); groupes de jeunes (guides, cadets, clubs des 4-H, etc). Développement communautaire (et économique). Éducation. Environnement. Handicapés physiques. Hôpitaux. Jeunesse. Organismes religieux. Premières nations. Protection des sols (et de l'agriculture et protection de l'environnement; services de recyclage). Protection et soins des animaux. Santé. Santé mentale. Sciences et sciences sociales. Services communautaires. Services sociaux. Sports et loisirs (amateurs). Universités.</t>
+          <t>Causes charitables en général. Enfance et jeunesse. Enfants (développement et bien-être). Handicapés physiques (enfants sourds). Jeunesse. Maisons d'hébergement (pour les enfants, Hébergement ou autres services à l'enfance et à la jeunesse). Pauvreté (personnes dans le besoin). Santé (promouvoir les programmes de santé sur les maladies du coeur et le diabète juvénile). Santé mentale (Organismes de santé spécialisés). Services sociaux (Fondation des maladies du coeur du Canada, Fondation de la recherche sur le diabète juvénile et Jeuness, J'écoute). Soins palliatifs.</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>Bourses aux particuliers (5 bourses d'une valeur de 4 000 $ voir le site web pour détails). Dons jumelés (avec les employés). Fondations hospitalières. Fonds de dotation. Fonds pour programmes et services. Projets de recherches. Projets spéciaux.</t>
+          <t>Activité bénéfice annuelle (Ventes aux enchères, tirages, loteries, soirées-bénéfice, galas ou concerts, dons de sociétés et commandites ciblés, tournois, événements sportifs, internet). Amélioration de la qualité de vie (des enfants et des jeunes). Campagne de financement (Tournoi de golf annuel international des franchisés de Boston Pizza). Soins palliatifs.</t>
         </is>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>Communiquer par : courrier seulement. Favorise les organismes communautaires. Joindre la liste des membres du c.a. (avec la liste des autres donateurs approchés y compris l'aide financière gouvernementale). Joindre vos états financiers vérifiés et le rapport annuel. Limites géographiques : le Canada. Liste de projets financés disponible. Rapport annuel disponible (sur le site web ou dans les succursales de RBC). Soumettre d'abord un résumé du projet. Voir le site web (pour dons et commandite).</t>
+          <t>Communiquer par : courrier, courriel ou fax. Limites géographiques : le Canada. Voir le site web.</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>donations@rbc.com</t>
+          <t>treveling@bostonpizza.com</t>
         </is>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>www.rbc.com/community/donations</t>
+          <t>www.bostonpizza.com/en/bp-foundation</t>
         </is>
       </c>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr"/>
       <c r="V64" t="inlineStr">
         <is>
-          <t>416-974-0624</t>
+          <t>604-270-4168</t>
         </is>
       </c>
       <c r="W64" t="inlineStr"/>
@@ -6504,11 +6576,11 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1061</t>
+          <t>1063</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -6518,12 +6590,12 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Boston Pizza Foundation </t>
+          <t xml:space="preserve">Ronald McDonald House Charities </t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>100-10 760 Shellbridge Way Richmond BC V6X3H1</t>
+          <t>a/s Les Restaurants Ronald McDonald du Canada 1, McDonald's Place Toronto ON M3C3L4</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -6533,37 +6605,37 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fondation corporative </t>
+          <t xml:space="preserve"> Fondation publique </t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mr Walter Treveling, Director &amp; President </t>
+          <t xml:space="preserve">Mr Jeff Mclean, Treasurer </t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>604-270-1108</t>
+          <t>416-446-3493</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>500 à 290 000 $</t>
+          <t>157 700 à 829 500 $</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>1 709 450 $</t>
+          <t>5 046 250 $</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>708 500 $</t>
+          <t>17 735 400 $</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>En tout temps</t>
+          <t>1 mars, 1 août et 1 décembre</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -6573,34 +6645,34 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Causes charitables en général. Enfance et jeunesse. Enfants (développement et bien-être). Handicapés physiques (enfants sourds). Jeunesse. Maisons d'hébergement (pour les enfants, Hébergement ou autres services à l'enfance et à la jeunesse). Pauvreté (personnes dans le besoin). Santé (promouvoir les programmes de santé sur les maladies du coeur et le diabète juvénile). Santé mentale (Organismes de santé spécialisés). Services sociaux (Fondation des maladies du coeur du Canada, Fondation de la recherche sur le diabète juvénile et Jeuness, J'écoute). Soins palliatifs.</t>
+          <t>Causes charitables en général (organismes enregistrés voués aux enfants malades et/ou avec limitations et leur famille). Malades chroniques (cancer, autisme, paralysie cérébrale ou syndrome de Down etc). Recherche (médicale pour les enfants). Santé (des enfants).</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>Activité bénéfice annuelle (Ventes aux enchères, tirages, loteries, soirées-bénéfice, galas ou concerts, dons de sociétés et commandites ciblés, tournois, événements sportifs, internet). Amélioration de la qualité de vie (des enfants et des jeunes). Campagne de financement (Tournoi de golf annuel international des franchisés de Boston Pizza). Soins palliatifs.</t>
+          <t>Activité bénéfice annuelle (publicité, imprimés, messages publicitaires à la radio ou à la télévision, ventes aux enchères, tirages, loteries, dons de sociétés et commandites ciblés, tournois, événements sportifs, marketing lié à une cause). Amélioration de la qualité de vie (des enfants atteints de maladies graves ou chroniques ou avec des limitations diverses et leur famille). Organismes (communautaires venant en aide aux enfants dans le besoin, ou souffrant de graves maladies, chroniques ou physiques). Services récréationnels (sports et terrains de jeux accessibles en fauteuil roulant).</t>
         </is>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>Communiquer par : courrier, courriel ou fax. Limites géographiques : le Canada. Voir le site web.</t>
+          <t>Appuie à des projets importants (avec appui financier surtout aux Manoirs McDonald et aux organismes qui s'occupent d'enfants malades). Communiquer par : courrier, courriel ou fax. Formulaire disponible sur le site web. Joindre le numéro d’enregistrement de charité. Limites géographiques : le Canada. Voir le site web.</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>treveling@bostonpizza.com</t>
+          <t>rmhc@ca.mcd.com</t>
         </is>
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>www.bostonpizza.com/en/bp-foundation</t>
+          <t>www.rmhc.ca</t>
         </is>
       </c>
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr"/>
       <c r="V65" t="inlineStr">
         <is>
-          <t>604-270-4168</t>
+          <t>416-446-4679</t>
         </is>
       </c>
       <c r="W65" t="inlineStr"/>
@@ -6609,11 +6681,11 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1063</t>
+          <t>1091</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -6623,12 +6695,12 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ronald McDonald House Charities </t>
+          <t>Royal Lepage Shelter Foundation,</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>a/s Les Restaurants Ronald McDonald du Canada 1, McDonald's Place Toronto ON M3C3L4</t>
+          <t>39 Wynford Drive Toronto ON M3C3K5</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -6643,32 +6715,32 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mr Jeff Mclean, Treasurer </t>
+          <t xml:space="preserve">Mrs Shanan Spencer-Brown, Executive Director  &amp; President </t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>416-446-3493</t>
+          <t>416-510-5750</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>157 700 à 829 500 $</t>
+          <t>350 à 250 550 $</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>5 046 250 $</t>
+          <t>1 897 025 $</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>17 735 400 $</t>
+          <t>1 350 600 $</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>1 mars, 1 août et 1 décembre</t>
+          <t>En tout temps</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -6678,34 +6750,34 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Causes charitables en général (organismes enregistrés voués aux enfants malades et/ou avec limitations et leur famille). Malades chroniques (cancer, autisme, paralysie cérébrale ou syndrome de Down etc). Recherche (médicale pour les enfants). Santé (des enfants).</t>
+          <t>Éducation. Femmes et causes féminines (avancement). Hébergement d'urgence (femmes et enfants). Prévention du crime (violence conjugale). Recherche (sur la violence faite aux femmes). Religion. Universités.</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>Activité bénéfice annuelle (publicité, imprimés, messages publicitaires à la radio ou à la télévision, ventes aux enchères, tirages, loteries, dons de sociétés et commandites ciblés, tournois, événements sportifs, marketing lié à une cause). Amélioration de la qualité de vie (des enfants atteints de maladies graves ou chroniques ou avec des limitations diverses et leur famille). Organismes (communautaires venant en aide aux enfants dans le besoin, ou souffrant de graves maladies, chroniques ou physiques). Services récréationnels (sports et terrains de jeux accessibles en fauteuil roulant).</t>
+          <t>Activité bénéfice annuelle (Ventes aux enchères, tirages, loteries, soirées-bénéfice, galas ou concerts, ventes, internet, dons de sociétés et commandites ciblés, contacts ciblés, tournois, événements sportifs, marketing lié à une cause). Événements culturels (et spéciaux).</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>Appuie à des projets importants (avec appui financier surtout aux Manoirs McDonald et aux organismes qui s'occupent d'enfants malades). Communiquer par : courrier, courriel ou fax. Formulaire disponible sur le site web. Joindre le numéro d’enregistrement de charité. Limites géographiques : le Canada. Voir le site web.</t>
+          <t>Administre ses propres programmes. Communiquer par : courrier, courriel ou fax. Tél. sans frais : 877-757-4545. Limites géographiques : le Canada. Voir le site web.</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>rmhc@ca.mcd.com</t>
+          <t>shelterfoundation@royallepage.ca</t>
         </is>
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>www.rmhc.ca</t>
+          <t>www.royallepage.ca/shelter</t>
         </is>
       </c>
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr"/>
       <c r="V66" t="inlineStr">
         <is>
-          <t>416-446-4679</t>
+          <t>416-510-5856</t>
         </is>
       </c>
       <c r="W66" t="inlineStr"/>
@@ -6714,11 +6786,11 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1091</t>
+          <t>1109</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -6728,49 +6800,37 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Royal Lepage Shelter Foundation,</t>
+          <t>Sanofi-Aventis au Canada,</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>39 Wynford Drive Toronto ON M3C3K5</t>
+          <t>2150, boul. St-Elzéar O. Laval QC H7L4A8</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>F</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fondation publique </t>
+          <t xml:space="preserve"> Fondation corporative </t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mrs Shanan Spencer-Brown, Executive Director  &amp; President </t>
+          <t xml:space="preserve">Docteur Jean Bourgouin, Vice-président  Recherche &amp; développement </t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>416-510-5750</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>350 à 250 550 $</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>1 897 025 $</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>1 350 600 $</t>
-        </is>
-      </c>
+          <t>514-331-9220</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr">
         <is>
           <t>En tout temps</t>
@@ -6783,47 +6843,51 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Éducation. Femmes et causes féminines (avancement). Hébergement d'urgence (femmes et enfants). Prévention du crime (violence conjugale). Recherche (sur la violence faite aux femmes). Religion. Universités.</t>
+          <t>Causes charitables en général. Centres de plein air (et camps d'été). Coopération internationale (pays en développement). Éducation. Jeunesse. Recherche. Santé. Services sociaux. Universités.</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Activité bénéfice annuelle (Ventes aux enchères, tirages, loteries, soirées-bénéfice, galas ou concerts, ventes, internet, dons de sociétés et commandites ciblés, contacts ciblés, tournois, événements sportifs, marketing lié à une cause). Événements culturels (et spéciaux).</t>
+          <t>Coopération internationale (pays en développement). Dons jumelés. Recherches médicales. Recherches scientifiques. Santé (dons en médicaments).</t>
         </is>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>Administre ses propres programmes. Communiquer par : courrier, courriel ou fax. Tél. sans frais : 877-757-4545. Limites géographiques : le Canada. Voir le site web.</t>
-        </is>
-      </c>
-      <c r="R67" t="inlineStr">
-        <is>
-          <t>shelterfoundation@royallepage.ca</t>
-        </is>
-      </c>
+          <t>Communiquer par : courrier seulement. Formulaire disponible sur le site web). Joindre la liste des membres du c.a. Joindre le numéro d’enregistrement de charité. Joindre vos états financiers vérifiés et le rapport annuel. Soumettre d'abord un résumé du projet. Voir le site web (« Collectivité »).</t>
+        </is>
+      </c>
+      <c r="R67" t="inlineStr"/>
       <c r="S67" t="inlineStr">
         <is>
-          <t>www.royallepage.ca/shelter</t>
-        </is>
-      </c>
-      <c r="T67" t="inlineStr"/>
+          <t>www.sanofi-aventis.ca</t>
+        </is>
+      </c>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>www.sanofi.ca</t>
+        </is>
+      </c>
       <c r="U67" t="inlineStr"/>
       <c r="V67" t="inlineStr">
         <is>
-          <t>416-510-5856</t>
-        </is>
-      </c>
-      <c r="W67" t="inlineStr"/>
+          <t>514-856-8706</t>
+        </is>
+      </c>
+      <c r="W67" t="inlineStr">
+        <is>
+          <t>63700</t>
+        </is>
+      </c>
       <c r="X67" t="inlineStr"/>
       <c r="Y67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>1109</t>
+          <t>1112</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -6833,37 +6897,49 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Sanofi-Aventis au Canada,</t>
+          <t>Mirella &amp; Lino Saputo,</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2150, boul. St-Elzéar O. Laval QC H7L4A8</t>
+          <t>6869, boul. Métropolitain Est St-Léonard QC H1P1X8</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fondation corporative </t>
+          <t xml:space="preserve"> Fondation privée </t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t xml:space="preserve">Docteur Jean Bourgouin, Vice-président  Recherche &amp; développement </t>
+          <t xml:space="preserve">Madame Mirella Scattolin Saputo, Présidente </t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>514-331-9220</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+          <t>514-328-6662</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>1 000 à 400 000 $</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>1 772 500 $</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>29 800 $</t>
+        </is>
+      </c>
       <c r="M68" t="inlineStr">
         <is>
           <t>En tout temps</t>
@@ -6876,51 +6952,43 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Causes charitables en général. Centres de plein air (et camps d'été). Coopération internationale (pays en développement). Éducation. Jeunesse. Recherche. Santé. Services sociaux. Universités.</t>
+          <t>Aînés (causes venant en aide aux aînés). Arts et culture. Causes charitables en général (organismes enregistrés). Femmes et causes féminines (causes venant en aide aux femmes). Handicapés physiques (aide aux enfants malades et handicapés). Hôpitaux. Organismes religieux. Santé. Sciences et sciences sociales. Services sociaux.</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>Coopération internationale (pays en développement). Dons jumelés. Recherches médicales. Recherches scientifiques. Santé (dons en médicaments).</t>
+          <t>Fondations hospitalières.</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>Communiquer par : courrier seulement. Formulaire disponible sur le site web). Joindre la liste des membres du c.a. Joindre le numéro d’enregistrement de charité. Joindre vos états financiers vérifiés et le rapport annuel. Soumettre d'abord un résumé du projet. Voir le site web (« Collectivité »).</t>
+          <t>Communiquer par : courrier ou fax en français, anglais ou italien. Limites géographiques : Montréal. Voir le site web.</t>
         </is>
       </c>
       <c r="R68" t="inlineStr"/>
       <c r="S68" t="inlineStr">
         <is>
-          <t>www.sanofi-aventis.ca</t>
-        </is>
-      </c>
-      <c r="T68" t="inlineStr">
-        <is>
-          <t>www.sanofi.ca</t>
-        </is>
-      </c>
+          <t>www.saputo.com</t>
+        </is>
+      </c>
+      <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr"/>
       <c r="V68" t="inlineStr">
         <is>
-          <t>514-856-8706</t>
-        </is>
-      </c>
-      <c r="W68" t="inlineStr">
-        <is>
-          <t>63700</t>
-        </is>
-      </c>
+          <t>514-328-3375</t>
+        </is>
+      </c>
+      <c r="W68" t="inlineStr"/>
       <c r="X68" t="inlineStr"/>
       <c r="Y68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1112</t>
+          <t>1122</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -6930,12 +6998,12 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Mirella &amp; Lino Saputo,</t>
+          <t>Reader's Digest du Canada,</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>6869, boul. Métropolitain Est St-Léonard QC H1P1X8</t>
+          <t>1100, boul. René-Lévesque O., 9e étage Montréal QC H3B5H5</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -6945,37 +7013,37 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fondation privée </t>
+          <t xml:space="preserve"> Fondation corporative </t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t xml:space="preserve">Madame Mirella Scattolin Saputo, Présidente </t>
+          <t xml:space="preserve">Madame Corinne Hazan, Contrôleure </t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>514-328-6662</t>
+          <t>514-940-7226</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>1 000 à 400 000 $</t>
+          <t>25 à 12 500 $</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>1 772 500 $</t>
+          <t>82 100 $</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>29 800 $</t>
+          <t>216 400 $</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>En tout temps</t>
+          <t>15 avril</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -6985,30 +7053,30 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Aînés (causes venant en aide aux aînés). Arts et culture. Causes charitables en général (organismes enregistrés). Femmes et causes féminines (causes venant en aide aux femmes). Handicapés physiques (aide aux enfants malades et handicapés). Hôpitaux. Organismes religieux. Santé. Sciences et sciences sociales. Services sociaux.</t>
+          <t>Arts et culture. Causes charitables en général. Centraide. Éducation (en écriture, collèges et universités). Héritage culturel. Hôpitaux. Journalisme. Organismes religieux. Santé (organismes spécialisés). Services sociaux. Universités.</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>Fondations hospitalières.</t>
+          <t>Bourses aux particuliers. Conférences. Dons jumelés (avec les employés). Fondations hospitalières. Fonds de construction / de capitalisation. Fonds de fonctionnement ou d'opération. Fonds d'équipement. Prix. Projets de recherches. Projets spéciaux. Publications (et diffusion médiatique). Séminaires.</t>
         </is>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>Communiquer par : courrier ou fax en français, anglais ou italien. Limites géographiques : Montréal. Voir le site web.</t>
+          <t>Communiquer par : courrier ou fax. Dons échelonnés sur plusieurs années. Limites géographiques : le Canada. Voir le site web.</t>
         </is>
       </c>
       <c r="R69" t="inlineStr"/>
       <c r="S69" t="inlineStr">
         <is>
-          <t>www.saputo.com</t>
+          <t>www.selectionrd.ca</t>
         </is>
       </c>
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr"/>
       <c r="V69" t="inlineStr">
         <is>
-          <t>514-328-3375</t>
+          <t>514-940-7342</t>
         </is>
       </c>
       <c r="W69" t="inlineStr"/>
@@ -7017,11 +7085,11 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>1122</t>
+          <t>1158</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -7031,98 +7099,98 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Reader's Digest du Canada,</t>
+          <t xml:space="preserve">La fondation Stop Hunger de Sodexo </t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>1100, boul. René-Lévesque O., 9e étage Montréal QC H3B5H5</t>
+          <t>Sodexo Canada 5420 North Service Road, Suite 501 Burlington, ON L7L6C7</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>B</t>
+          <t xml:space="preserve">B  </t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fondation corporative </t>
+          <t xml:space="preserve"> Fondation privée </t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t xml:space="preserve">Madame Corinne Hazan, Contrôleure </t>
+          <t xml:space="preserve">Mrs Marie-Line Beauchamp, Director </t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>514-940-7226</t>
+          <t>514-866-7070canada@sodexo.comhttp://ca.sodexo.com/caen/contact.aspx</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>25 à 12 500 $</t>
+          <t>1 000 à 7 000 $</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>82 100 $</t>
+          <t>50 800 $</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>216 400 $</t>
+          <t>426 000 $En tout temps</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>15 avril</t>
+          <t>En tout temps</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>31 décembre</t>
+          <t>31 décembreAlimentation (santé; dans les écoles). Banques alimentaires (communautaire et vestimentaires, auberges). Éducation (améliorer l’alimentation). Enfants (développement et bien-être). Environnement. Pauvreté. Santé. Services sociaux.Activité bénéfice annuelle (ventes aux enchères, tirages, loteries, soirées-bénéfice, galas ou concerts, dons de sociétés et commandites ciblés). Dons jumelés (avec les employés).</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Arts et culture. Causes charitables en général. Centraide. Éducation (en écriture, collèges et universités). Héritage culturel. Hôpitaux. Journalisme. Organismes religieux. Santé (organismes spécialisés). Services sociaux. Universités.</t>
+          <t xml:space="preserve">Pauvreté. Voué à réduire la faim dans les communautés.  </t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>Bourses aux particuliers. Conférences. Dons jumelés (avec les employés). Fondations hospitalières. Fonds de construction / de capitalisation. Fonds de fonctionnement ou d'opération. Fonds d'équipement. Prix. Projets de recherches. Projets spéciaux. Publications (et diffusion médiatique). Séminaires.</t>
+          <t>Programmes de réduction de la faim d’organismes com-munautaires. 740, rue Saint-Maurice, bur. 106   MontréalQCH3C1L5B</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>Communiquer par : courrier ou fax. Dons échelonnés sur plusieurs années. Limites géographiques : le Canada. Voir le site web.</t>
-        </is>
-      </c>
-      <c r="R70" t="inlineStr"/>
+          <t>Administre ses propres programmes. Communiquer par : courrier ou courriel. Limites géographiques : Montréal, Ottawa, Toronto, Halifax, Calgary et Vancouver. Voir le site web.</t>
+        </is>
+      </c>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>canada@sodexo.com</t>
+        </is>
+      </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>www.selectionrd.ca</t>
+          <t xml:space="preserve">http://ca.stop-hunger.org/fr/home/subvention.html </t>
         </is>
       </c>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr"/>
-      <c r="V70" t="inlineStr">
-        <is>
-          <t>514-940-7342</t>
-        </is>
-      </c>
+      <c r="V70" t="inlineStr"/>
       <c r="W70" t="inlineStr"/>
       <c r="X70" t="inlineStr"/>
       <c r="Y70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>1158</t>
+          <t>1172</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -7132,47 +7200,47 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t xml:space="preserve">La fondation Stop Hunger de Sodexo </t>
+          <t xml:space="preserve">Sony Canada Charitable Foundation </t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Sodexo Canada 5420 North Service Road, Suite 501 Burlington, ON L7L6C7</t>
+          <t>c/o Sony of Canada 115 Gordon Baker Rd Toronto ON M2H3R6</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t xml:space="preserve">B  </t>
+          <t>B</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fondation privée </t>
+          <t xml:space="preserve"> Fondation corporative </t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mrs Marie-Line Beauchamp, Director </t>
+          <t xml:space="preserve">Mr Barry Hasler, Treasurer </t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>514-866-7070canada@sodexo.comhttp://ca.sodexo.com/caen/contact.aspx</t>
+          <t>416-499-1414</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>1 000 à 7 000 $</t>
+          <t>250 à 145 650 $</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>50 800 $</t>
+          <t>240 100 $</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>426 000 $En tout temps</t>
+          <t>2 780 100 $</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
@@ -7182,48 +7250,52 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>31 décembreAlimentation (santé; dans les écoles). Banques alimentaires (communautaire et vestimentaires, auberges). Éducation (améliorer l’alimentation). Enfants (développement et bien-être). Environnement. Pauvreté. Santé. Services sociaux.Activité bénéfice annuelle (ventes aux enchères, tirages, loteries, soirées-bénéfice, galas ou concerts, dons de sociétés et commandites ciblés). Dons jumelés (avec les employés).</t>
+          <t>31 mars</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pauvreté. Voué à réduire la faim dans les communautés.  </t>
+          <t>Causes charitables en général (organismes canadiens enregistrés). Centraide. Make-a-Wish Canada. Éducation. Enfance et jeunesse. Enfants (développement et bien-être). Environnement. Hôpitaux (divertissement pour enfants malades). Pauvreté. Services sociaux. Universités (canadiennes).</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>Programmes de réduction de la faim d’organismes com-munautaires. 740, rue Saint-Maurice, bur. 106   MontréalQCH3C1L5B</t>
+          <t>Activité bénéfice annuelle (Tournois de golf). Bourses aux particuliers (bourses de 3 000 $ ch. à 10 universités canadiennes). Dons jumelés (avec les employés). Prix.</t>
         </is>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>Administre ses propres programmes. Communiquer par : courrier ou courriel. Limites géographiques : Montréal, Ottawa, Toronto, Halifax, Calgary et Vancouver. Voir le site web.</t>
+          <t>Communiquer par : courrier ou fax. Limites géographiques : le Canada.</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>canada@sodexo.com</t>
+          <t>general_inquiries@sony.ca</t>
         </is>
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t xml:space="preserve">http://ca.stop-hunger.org/fr/home/subvention.html </t>
+          <t>www.sony.ca/view/corporate_philanthropy.htm</t>
         </is>
       </c>
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr"/>
-      <c r="V71" t="inlineStr"/>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>416-491-7560</t>
+        </is>
+      </c>
       <c r="W71" t="inlineStr"/>
       <c r="X71" t="inlineStr"/>
       <c r="Y71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>1172</t>
+          <t>1184</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -7233,47 +7305,47 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sony Canada Charitable Foundation </t>
+          <t>SSQ,</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>c/o Sony of Canada 115 Gordon Baker Rd Toronto ON M2H3R6</t>
+          <t>2525, boul. Laurier  C.P. 10 500 Ste-Foy QC G1V4L2</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>F</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fondation corporative </t>
+          <t xml:space="preserve"> Fondation publique </t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mr Barry Hasler, Treasurer </t>
+          <t xml:space="preserve">Monsieur Jean Cinq-Mars, Personne Ressource </t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>416-499-1414</t>
+          <t>418-651-7000</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>250 à 145 650 $</t>
+          <t>500 à 25 000 $</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>240 100 $</t>
+          <t>81 560 $</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>2 780 100 $</t>
+          <t>1 570 800 $</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
@@ -7283,39 +7355,35 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>31 mars</t>
+          <t>31 décembre</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Causes charitables en général (organismes canadiens enregistrés). Centraide. Make-a-Wish Canada. Éducation. Enfance et jeunesse. Enfants (développement et bien-être). Environnement. Hôpitaux (divertissement pour enfants malades). Pauvreté. Services sociaux. Universités (canadiennes).</t>
+          <t>Arts et culture. Causes charitables en général (organismes enregistrés). Centres de plein air (et camps d'été / de vacances). Éducation. Enfants (développement et bien-être). Enfants maltraîtés / abusés. Hébergement d'urgence (pour enfants et jeunes). Jeunesse. Prévention du crime (et du suicide). Santé. Services sociaux. Sports et loisirs (terrains de jeux).</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>Activité bénéfice annuelle (Tournois de golf). Bourses aux particuliers (bourses de 3 000 $ ch. à 10 universités canadiennes). Dons jumelés (avec les employés). Prix.</t>
+          <t>Bourses aux particuliers. Prix.</t>
         </is>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>Communiquer par : courrier ou fax. Limites géographiques : le Canada.</t>
-        </is>
-      </c>
-      <c r="R72" t="inlineStr">
-        <is>
-          <t>general_inquiries@sony.ca</t>
-        </is>
-      </c>
+          <t>Communiquer par : courrier ou fax. Favorise les organismes communautaires. Limites géographiques : le Canada. Soumettre d'abord un résumé du projet (avec le budget total). Voir le site web.</t>
+        </is>
+      </c>
+      <c r="R72" t="inlineStr"/>
       <c r="S72" t="inlineStr">
         <is>
-          <t>www.sony.ca/view/corporate_philanthropy.htm</t>
+          <t>www.ssq.ca</t>
         </is>
       </c>
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr"/>
       <c r="V72" t="inlineStr">
         <is>
-          <t>416-491-7560</t>
+          <t>418-652-1659</t>
         </is>
       </c>
       <c r="W72" t="inlineStr"/>
@@ -7324,11 +7392,11 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>1184</t>
+          <t>1191</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -7338,98 +7406,70 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>SSQ,</t>
+          <t xml:space="preserve">The Steris Foundation </t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2525, boul. Laurier  C.P. 10 500 Ste-Foy QC G1V4L2</t>
+          <t>5960 Heisley Rd Mentor, OH, 44060-1834  USA</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>F</t>
+          <t xml:space="preserve">A  </t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fondation publique </t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Monsieur Jean Cinq-Mars, Personne Ressource </t>
-        </is>
-      </c>
+          <t xml:space="preserve">Fondation corporative </t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
-          <t>418-651-7000</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>500 à 25 000 $</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>81 560 $</t>
-        </is>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>1 570 800 $</t>
-        </is>
-      </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>En tout temps</t>
-        </is>
-      </c>
-      <c r="N73" t="inlineStr">
-        <is>
-          <t>31 décembre</t>
-        </is>
-      </c>
+          <t>(440) 354-2600</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Arts et culture. Causes charitables en général (organismes enregistrés). Centres de plein air (et camps d'été / de vacances). Éducation. Enfants (développement et bien-être). Enfants maltraîtés / abusés. Hébergement d'urgence (pour enfants et jeunes). Jeunesse. Prévention du crime (et du suicide). Santé. Services sociaux. Sports et loisirs (terrains de jeux).</t>
+          <t xml:space="preserve">Environnement, santé et sécurité industrielle.  </t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>Bourses aux particuliers. Prix.</t>
-        </is>
-      </c>
-      <c r="Q73" t="inlineStr">
-        <is>
-          <t>Communiquer par : courrier ou fax. Favorise les organismes communautaires. Limites géographiques : le Canada. Soumettre d'abord un résumé du projet (avec le budget total). Voir le site web.</t>
-        </is>
-      </c>
+          <t>Appui la santé et l'éducation scientifique et les activités civiques et culturelles.</t>
+        </is>
+      </c>
+      <c r="Q73" t="inlineStr"/>
       <c r="R73" t="inlineStr"/>
       <c r="S73" t="inlineStr">
         <is>
-          <t>www.ssq.ca</t>
+          <t xml:space="preserve">www.steris.com </t>
         </is>
       </c>
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr"/>
-      <c r="V73" t="inlineStr">
-        <is>
-          <t>418-652-1659</t>
-        </is>
-      </c>
+      <c r="V73" t="inlineStr"/>
       <c r="W73" t="inlineStr"/>
       <c r="X73" t="inlineStr"/>
-      <c r="Y73" t="inlineStr"/>
+      <c r="Y73" t="inlineStr">
+        <is>
+          <t>nationales.</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>1186</t>
+          <t>1244</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -7437,40 +7477,100 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr"/>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Tim Horton - Nationale,</t>
+        </is>
+      </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Voir la Fondation St-Hubert, plus haut.</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr"/>
-      <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr"/>
-      <c r="I74" t="inlineStr"/>
+          <t>RR2, 264 Glen Morris Rd East St George ON N0E1N0</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Org. philanthropique </t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Monsieur Bill Moir, Directeur-Président </t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>519-448-1248</t>
+        </is>
+      </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="inlineStr"/>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>17 926 740 $</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>51 463 700 $</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>En tout temps</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>31 octobre</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>Centres de plein air (et camps d'été; au Québec, Camp des Voyageurs Tim Horton, 60, ch. Du Canal, C.P. 310, Quyon Qc J0X2V0;  Tél. : 819-458-3164 ou 514-636-2233 - Fax : 819-458-3181). Enfance et jeunesse (défavorisées). Sports et loisirs.</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>Activité bénéfice annuelle (Messages publicitaires, ventes aux enchères, boîte de collecte, loteries, soirées-bénéfice, galas ou concerts, ventes, internet, campagnes de financement par la poste, dons de sociétés et commandites ciblés).</t>
+        </is>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>Communiquer par : courrier, courriel ou fax. Favorise les organismes communautaires. Formulaire disponible sur demande (ou sur le site web). Limites géographiques : le Québec, le Canada et USA. Voir le site web.</t>
+        </is>
+      </c>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>hamilton_erica@timhortons.com</t>
+        </is>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>www.timhortons.com/ca/fr</t>
+        </is>
+      </c>
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="inlineStr"/>
-      <c r="V74" t="inlineStr"/>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>519-448-1415</t>
+        </is>
+      </c>
       <c r="W74" t="inlineStr"/>
       <c r="X74" t="inlineStr"/>
       <c r="Y74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>1191</t>
+          <t>1278</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -7480,50 +7580,78 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t xml:space="preserve">The Steris Foundation </t>
+          <t>Utramar Canada,</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>5960 Heisley Rd Mentor, OH, 44060-1834  USA</t>
+          <t>1155, boul. René-Lévesque O., bur. 3200 Montréal QC H3B0C9</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t xml:space="preserve">A  </t>
+          <t>B</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fondation corporative </t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr"/>
+          <t xml:space="preserve"> Fondation corporative </t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Monsieur Christian Houle, Président </t>
+        </is>
+      </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>(440) 354-2600</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="inlineStr"/>
+          <t>514-499-6494</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>10 à 531 400 $</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>1 173 800 :$</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>155 535 $</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>En tout temps</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>31 décembre</t>
+        </is>
+      </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t xml:space="preserve">Environnement, santé et sécurité industrielle.  </t>
+          <t>Causes charitables en général (organismes enregistrés). Centraide. Éducation. Enfance et jeunesse. Enfants (développement et bien-être). Hôpitaux. Maladies (infantiles et le cancer du sein, maladie du coeur, AVC et autres). Pauvreté. Recherche (sur ces maladies). Santé. Services sociaux.</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>Appui la santé et l'éducation scientifique et les activités civiques et culturelles.</t>
-        </is>
-      </c>
-      <c r="Q75" t="inlineStr"/>
+          <t>Activité bénéfice annuelle (tournois, événements sportifs, marketing lié à une cause). Bien-être des enfants. Santé.</t>
+        </is>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>Communiquer par : courrier. Limites géographiques : le Québec.</t>
+        </is>
+      </c>
       <c r="R75" t="inlineStr"/>
       <c r="S75" t="inlineStr">
         <is>
-          <t xml:space="preserve">www.steris.com </t>
+          <t>http://www.ultramarcst.ca  -ou- https://www.ultramar.ca/fr- qc/engagement-communautaire/fondation-ultramar/</t>
         </is>
       </c>
       <c r="T75" t="inlineStr"/>
@@ -7531,19 +7659,15 @@
       <c r="V75" t="inlineStr"/>
       <c r="W75" t="inlineStr"/>
       <c r="X75" t="inlineStr"/>
-      <c r="Y75" t="inlineStr">
-        <is>
-          <t>nationales.</t>
-        </is>
-      </c>
+      <c r="Y75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>1244</t>
+          <t>1286</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -7553,45 +7677,41 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Tim Horton - Nationale,</t>
+          <t>UPS Foundation,</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>RR2, 264 Glen Morris Rd East St George ON N0E1N0</t>
+          <t>c/o UPS Canada Ltd 6285 Northam Drive, Suite 400 Mississauga ON L4V1X5</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Org. philanthropique </t>
+          <t xml:space="preserve"> Fondation corporative </t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t xml:space="preserve">Monsieur Bill Moir, Directeur-Président </t>
+          <t xml:space="preserve">Mr Eduardo Martinez, President </t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>519-448-1248</t>
+          <t>800-742-5877</t>
         </is>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
-          <t>17 926 740 $</t>
-        </is>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>51 463 700 $</t>
-        </is>
-      </c>
+          <t>93 500 000 $</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr">
         <is>
           <t>En tout temps</t>
@@ -7599,52 +7719,52 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>31 octobre</t>
+          <t>31 décembre</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>Centres de plein air (et camps d'été; au Québec, Camp des Voyageurs Tim Horton, 60, ch. Du Canal, C.P. 310, Quyon Qc J0X2V0;  Tél. : 819-458-3164 ou 514-636-2233 - Fax : 819-458-3181). Enfance et jeunesse (défavorisées). Sports et loisirs.</t>
+          <t>Aînés. Banques alimentaires (communautaire). Causes charitables en général. Centraide. Économie sociale (développement). Éducation (des adultes). Enfants (développement et bien-être). Enfants maltraîtés / abusés. Environnement. Famille (counselling et services). Handicapés visuels. Jeunesse. Littérature. Paix et sécurité. Pauvreté. Relève artistique (chanson, littérature, théâtre). Santé. Services sociaux.</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>Activité bénéfice annuelle (Messages publicitaires, ventes aux enchères, boîte de collecte, loteries, soirées-bénéfice, galas ou concerts, ventes, internet, campagnes de financement par la poste, dons de sociétés et commandites ciblés).</t>
+          <t>Dons jumelés (avec les employés). Fonds d'équipement. Fonds d'urgence ou de secours. Fonds pour programmes et services. Projets spéciaux.</t>
         </is>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>Communiquer par : courrier, courriel ou fax. Favorise les organismes communautaires. Formulaire disponible sur demande (ou sur le site web). Limites géographiques : le Québec, le Canada et USA. Voir le site web.</t>
+          <t>Communiquer par : courrier ou courriel. Joindre la liste des membres du c.a. Joindre le numéro d’enregistrement de charité. Joindre vos états financiers vérifiés et le rapport annuel. Limites géographiques : Canada et internationales. Soumettre d'abord un résumé du projet. Voir le site web.</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>hamilton_erica@timhortons.com</t>
+          <t>community@ups.com</t>
         </is>
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>www.timhortons.com/ca/fr</t>
-        </is>
-      </c>
-      <c r="T76" t="inlineStr"/>
+          <t>www.community.ups.com</t>
+        </is>
+      </c>
+      <c r="T76" t="inlineStr">
+        <is>
+          <t>http://www.community.ups.com/UPS+Foundation</t>
+        </is>
+      </c>
       <c r="U76" t="inlineStr"/>
-      <c r="V76" t="inlineStr">
-        <is>
-          <t>519-448-1415</t>
-        </is>
-      </c>
+      <c r="V76" t="inlineStr"/>
       <c r="W76" t="inlineStr"/>
       <c r="X76" t="inlineStr"/>
       <c r="Y76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1278</t>
+          <t>1302</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -7654,47 +7774,47 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Utramar Canada,</t>
+          <t>Velan Foundation,</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>1155, boul. René-Lévesque O., bur. 3200 Montréal QC H3B0C9</t>
+          <t>7007, ch. Côte-de-Liesse Saint-Laurent QC H4T1G2</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fondation corporative </t>
+          <t xml:space="preserve"> Fondation privée </t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t xml:space="preserve">Monsieur Christian Houle, Président </t>
+          <t xml:space="preserve">Mrs Olga Velan, Secretary </t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>514-499-6494</t>
+          <t>514-748-7743</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>10 à 531 400 $</t>
+          <t>300 à 300 000 $</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>1 173 800 :$</t>
+          <t>611 565 :$</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>155 535 $</t>
+          <t>2 364 800 $</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
@@ -7709,39 +7829,39 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>Causes charitables en général (organismes enregistrés). Centraide. Éducation. Enfance et jeunesse. Enfants (développement et bien-être). Hôpitaux. Maladies (infantiles et le cancer du sein, maladie du coeur, AVC et autres). Pauvreté. Recherche (sur ces maladies). Santé. Services sociaux.</t>
+          <t>Banques alimentaires (communautaire et vestimentaires, auberges, etc). Causes charitables en général (organismes enregistrés). Éducation (Bourses d'études, bourses d'entretien, etc). Famille (counselling à la famille et consultation d'urgence). Hôpitaux. Santé. Services communautaires (clubs).</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>Activité bénéfice annuelle (tournois, événements sportifs, marketing lié à une cause). Bien-être des enfants. Santé.</t>
+          <t xml:space="preserve"> Fondations hospitalières.</t>
         </is>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>Communiquer par : courrier. Limites géographiques : le Québec.</t>
+          <t>Communiquer par : courrier ou fax. Limites géographiques : Montréal et internationales.</t>
         </is>
       </c>
       <c r="R77" t="inlineStr"/>
-      <c r="S77" t="inlineStr">
-        <is>
-          <t>http://www.ultramarcst.ca  -ou- https://www.ultramar.ca/fr- qc/engagement-communautaire/fondation-ultramar/</t>
-        </is>
-      </c>
+      <c r="S77" t="inlineStr"/>
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="inlineStr"/>
-      <c r="V77" t="inlineStr"/>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>514-748-9593</t>
+        </is>
+      </c>
       <c r="W77" t="inlineStr"/>
       <c r="X77" t="inlineStr"/>
       <c r="Y77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1282</t>
+          <t>1310</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -7749,16 +7869,36 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr"/>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Segal Family Foundation,</t>
+        </is>
+      </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>La Fondation Unilever a été révoquée volontairement.</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr"/>
-      <c r="G78" t="inlineStr"/>
-      <c r="H78" t="inlineStr"/>
-      <c r="I78" t="inlineStr"/>
+          <t>8888, boul. Pie-IX Montréal QC H1Z4J5</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fondation privée</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Mr Alvin Segal, Director</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>514-593-9300</t>
+        </is>
+      </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
@@ -7767,22 +7907,34 @@
       <c r="O78" t="inlineStr"/>
       <c r="P78" t="inlineStr"/>
       <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="inlineStr"/>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>alvins@peerclo.com</t>
+        </is>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>www.peerlessclothing.com</t>
+        </is>
+      </c>
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="inlineStr"/>
-      <c r="V78" t="inlineStr"/>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>514-593-9640</t>
+        </is>
+      </c>
       <c r="W78" t="inlineStr"/>
       <c r="X78" t="inlineStr"/>
       <c r="Y78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>1286</t>
+          <t>1338</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -7792,12 +7944,12 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>UPS Foundation,</t>
+          <t>Xerox Foundation,</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>c/o UPS Canada Ltd 6285 Northam Drive, Suite 400 Mississauga ON L4V1X5</t>
+          <t>45 Glover Avenue P.O. Box 4505 Norwalk CT 06856-4505 USA</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -7812,18 +7964,18 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mr Eduardo Martinez, President </t>
+          <t xml:space="preserve">Mr Mark J. Conlin, President </t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>800-742-5877</t>
+          <t>1-800-275-9376</t>
         </is>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
-          <t>93 500 000 $</t>
+          <t>13 500 000 USD$</t>
         </is>
       </c>
       <c r="L79" t="inlineStr"/>
@@ -7839,302 +7991,35 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Aînés. Banques alimentaires (communautaire). Causes charitables en général. Centraide. Économie sociale (développement). Éducation (des adultes). Enfants (développement et bien-être). Enfants maltraîtés / abusés. Environnement. Famille (counselling et services). Handicapés visuels. Jeunesse. Littérature. Paix et sécurité. Pauvreté. Relève artistique (chanson, littérature, théâtre). Santé. Services sociaux.</t>
+          <t>Affaires publiques. Arts et culture. Arts visuels (sculpture, peinture, gravure). Centres de plein air (et camps d'été). Culture et traditions. Danse. Développement communautaire. Développement du leadership. Éducation (en science, technologie, ingénierie et mathématiques - STEM). Enfants (développement et bien-être). Enfants maltraîtés / abusés. Environnement (parcs et jardins). Femmes et causes féminines (femmes abusées). Institutions d'enseignement. Science et technologie. Sciences et sciences sociales. Services communautaires. Services sociaux (YMCA/YWCA, Grands Frères et Grandes Sœurs). Théâtre. Vétérans (militaires et les organismes).</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>Dons jumelés (avec les employés). Fonds d'équipement. Fonds d'urgence ou de secours. Fonds pour programmes et services. Projets spéciaux.</t>
+          <t>Campagne annuelle. Dons jumelés (avec les employés). Équipement spécialisé. Fonds de développement. Fonds de fonctionnement ou d'opération. Fonds de recherche. Fonds d'équipement. Fonds d'urgence ou de secours. Fonds pour programmes et services. Parcs et jardins.</t>
         </is>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>Communiquer par : courrier ou courriel. Joindre la liste des membres du c.a. Joindre le numéro d’enregistrement de charité. Joindre vos états financiers vérifiés et le rapport annuel. Limites géographiques : Canada et internationales. Soumettre d'abord un résumé du projet. Voir le site web.</t>
-        </is>
-      </c>
-      <c r="R79" t="inlineStr">
-        <is>
-          <t>community@ups.com</t>
-        </is>
-      </c>
+          <t>Communiquer par : courrier, 2 à 3 pages. Rapport annuel, brochure et formulaire disponibles sur demande. Soumettre d'abord un résumé du projet (en 1 copie). L’adresse au Canada :  Xerox Canada, 5650 Yonge Street, Toronto, Ontario  M2M 4G7.  Tél. 800-939-3769).</t>
+        </is>
+      </c>
+      <c r="R79" t="inlineStr"/>
       <c r="S79" t="inlineStr">
         <is>
-          <t>www.community.ups.com</t>
-        </is>
-      </c>
-      <c r="T79" t="inlineStr">
-        <is>
-          <t>http://www.community.ups.com/UPS+Foundation</t>
-        </is>
-      </c>
+          <t>www.xerox.com</t>
+        </is>
+      </c>
+      <c r="T79" t="inlineStr"/>
       <c r="U79" t="inlineStr"/>
-      <c r="V79" t="inlineStr"/>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>203-968-3330</t>
+        </is>
+      </c>
       <c r="W79" t="inlineStr"/>
       <c r="X79" t="inlineStr"/>
       <c r="Y79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>1302</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>Velan Foundation,</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>7007, ch. Côte-de-Liesse Saint-Laurent QC H4T1G2</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Fondation privée </t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mrs Olga Velan, Secretary </t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>514-748-7743</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>300 à 300 000 $</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>611 565 :$</t>
-        </is>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>2 364 800 $</t>
-        </is>
-      </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>En tout temps</t>
-        </is>
-      </c>
-      <c r="N80" t="inlineStr">
-        <is>
-          <t>31 décembre</t>
-        </is>
-      </c>
-      <c r="O80" t="inlineStr">
-        <is>
-          <t>Banques alimentaires (communautaire et vestimentaires, auberges, etc). Causes charitables en général (organismes enregistrés). Éducation (Bourses d'études, bourses d'entretien, etc). Famille (counselling à la famille et consultation d'urgence). Hôpitaux. Santé. Services communautaires (clubs).</t>
-        </is>
-      </c>
-      <c r="P80" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Fondations hospitalières.</t>
-        </is>
-      </c>
-      <c r="Q80" t="inlineStr">
-        <is>
-          <t>Communiquer par : courrier ou fax. Limites géographiques : Montréal et internationales.</t>
-        </is>
-      </c>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="inlineStr"/>
-      <c r="T80" t="inlineStr"/>
-      <c r="U80" t="inlineStr"/>
-      <c r="V80" t="inlineStr">
-        <is>
-          <t>514-748-9593</t>
-        </is>
-      </c>
-      <c r="W80" t="inlineStr"/>
-      <c r="X80" t="inlineStr"/>
-      <c r="Y80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>1310</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>Segal Family Foundation,</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>8888, boul. Pie-IX Montréal QC H1Z4J5</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Fondation privée</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>Mr Alvin Segal, Director</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>514-593-9300</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="inlineStr"/>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr">
-        <is>
-          <t>alvins@peerclo.com</t>
-        </is>
-      </c>
-      <c r="S81" t="inlineStr">
-        <is>
-          <t>www.peerlessclothing.com</t>
-        </is>
-      </c>
-      <c r="T81" t="inlineStr"/>
-      <c r="U81" t="inlineStr"/>
-      <c r="V81" t="inlineStr">
-        <is>
-          <t>514-593-9640</t>
-        </is>
-      </c>
-      <c r="W81" t="inlineStr"/>
-      <c r="X81" t="inlineStr"/>
-      <c r="Y81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>1338</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>Xerox Foundation,</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>45 Glover Avenue P.O. Box 4505 Norwalk CT 06856-4505 USA</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Fondation corporative </t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mr Mark J. Conlin, President </t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>1-800-275-9376</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>13 500 000 USD$</t>
-        </is>
-      </c>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>En tout temps</t>
-        </is>
-      </c>
-      <c r="N82" t="inlineStr">
-        <is>
-          <t>31 décembre</t>
-        </is>
-      </c>
-      <c r="O82" t="inlineStr">
-        <is>
-          <t>Affaires publiques. Arts et culture. Arts visuels (sculpture, peinture, gravure). Centres de plein air (et camps d'été). Culture et traditions. Danse. Développement communautaire. Développement du leadership. Éducation (en science, technologie, ingénierie et mathématiques - STEM). Enfants (développement et bien-être). Enfants maltraîtés / abusés. Environnement (parcs et jardins). Femmes et causes féminines (femmes abusées). Institutions d'enseignement. Science et technologie. Sciences et sciences sociales. Services communautaires. Services sociaux (YMCA/YWCA, Grands Frères et Grandes Sœurs). Théâtre. Vétérans (militaires et les organismes).</t>
-        </is>
-      </c>
-      <c r="P82" t="inlineStr">
-        <is>
-          <t>Campagne annuelle. Dons jumelés (avec les employés). Équipement spécialisé. Fonds de développement. Fonds de fonctionnement ou d'opération. Fonds de recherche. Fonds d'équipement. Fonds d'urgence ou de secours. Fonds pour programmes et services. Parcs et jardins.</t>
-        </is>
-      </c>
-      <c r="Q82" t="inlineStr">
-        <is>
-          <t>Communiquer par : courrier, 2 à 3 pages. Rapport annuel, brochure et formulaire disponibles sur demande. Soumettre d'abord un résumé du projet (en 1 copie). L’adresse au Canada :  Xerox Canada, 5650 Yonge Street, Toronto, Ontario  M2M 4G7.  Tél. 800-939-3769).</t>
-        </is>
-      </c>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="inlineStr">
-        <is>
-          <t>www.xerox.com</t>
-        </is>
-      </c>
-      <c r="T82" t="inlineStr"/>
-      <c r="U82" t="inlineStr"/>
-      <c r="V82" t="inlineStr">
-        <is>
-          <t>203-968-3330</t>
-        </is>
-      </c>
-      <c r="W82" t="inlineStr"/>
-      <c r="X82" t="inlineStr"/>
-      <c r="Y82" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
